--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_9_32.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_9_32.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2708335.049360475</v>
+        <v>2704076.787133998</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283195</v>
+        <v>416855.1052283186</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9107140.771302419</v>
+        <v>9107140.771302421</v>
       </c>
     </row>
     <row r="11">
@@ -664,7 +664,7 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -673,13 +673,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>211.4111191153584</v>
+        <v>412.9288914861689</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>19.18559496278883</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,28 +706,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>0.7530123241028832</v>
       </c>
       <c r="S2" t="n">
-        <v>154.9260532011782</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.1557452255192</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -755,10 +755,10 @@
         <v>136.0733975638444</v>
       </c>
       <c r="H3" t="n">
-        <v>99.96876284261759</v>
+        <v>99.96876284261766</v>
       </c>
       <c r="I3" t="n">
-        <v>45.66663787323655</v>
+        <v>45.66663787323679</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,10 +785,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>21.29900499199404</v>
+        <v>21.29900499199448</v>
       </c>
       <c r="S3" t="n">
-        <v>148.0912566156103</v>
+        <v>148.0912566156105</v>
       </c>
       <c r="T3" t="n">
         <v>195.0452553973763</v>
@@ -816,16 +816,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2.128310457550943</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -876,13 +876,13 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>124.3703705616549</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -895,13 +895,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>358.4552401887474</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -916,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>118.9581905386867</v>
+        <v>44.35523164085193</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,16 +943,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>0.7530123241028832</v>
       </c>
       <c r="S5" t="n">
-        <v>154.9260532011782</v>
+        <v>154.9260532011785</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>212.7043385723319</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.1557452255192</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -964,7 +964,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -992,10 +992,10 @@
         <v>136.0733975638444</v>
       </c>
       <c r="H6" t="n">
-        <v>99.96876284261759</v>
+        <v>99.96876284261766</v>
       </c>
       <c r="I6" t="n">
-        <v>45.66663787323655</v>
+        <v>45.66663787323679</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,10 +1022,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>21.29900499199404</v>
+        <v>21.29900499199448</v>
       </c>
       <c r="S6" t="n">
-        <v>148.0912566156103</v>
+        <v>148.0912566156105</v>
       </c>
       <c r="T6" t="n">
         <v>195.0452553973763</v>
@@ -1053,13 +1053,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1074,10 +1074,10 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>27.01866804855361</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>18.07600977063332</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1107,10 +1107,10 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>87.28118305954339</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2609479597986</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1138,7 +1138,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1150,10 +1150,10 @@
         <v>412.9169039459368</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>118.4960408938903</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,16 +1183,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>154.6528871281402</v>
       </c>
       <c r="T8" t="n">
-        <v>212.651863114966</v>
+        <v>47.48536395958274</v>
       </c>
       <c r="U8" t="n">
-        <v>251.1547862223006</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>140.3136296841912</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -1201,7 +1201,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1290,10 +1290,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -1302,13 +1302,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>152.7120966692326</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1344,7 +1344,7 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>223.3729047207587</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1353,13 +1353,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>75.39540031917232</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>184.6902077947043</v>
       </c>
     </row>
     <row r="11">
@@ -1372,7 +1372,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710079</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695526</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1527,25 +1527,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>138.2893995353423</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1575,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -1596,7 +1596,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>195.9478727852292</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634811</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1624,7 +1624,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.154082144414</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1660,10 +1660,10 @@
         <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576162</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1703,7 +1703,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128558</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1736,7 +1736,7 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>117.0286782364137</v>
+        <v>117.0286782364134</v>
       </c>
       <c r="T15" t="n">
         <v>188.3046392154443</v>
@@ -1770,7 +1770,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1779,13 +1779,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922689</v>
+        <v>27.0291980517616</v>
       </c>
       <c r="H16" t="n">
-        <v>140.294712846224</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856585</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012214</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016448</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1830,10 +1830,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>157.183895482401</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1861,7 +1861,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.154082144414</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,13 +1894,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695582</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576162</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881297</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -1940,7 +1940,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H18" t="n">
-        <v>83.81768903128558</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1973,7 +1973,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>117.0286782364137</v>
+        <v>117.0286782364134</v>
       </c>
       <c r="T18" t="n">
         <v>188.3046392154443</v>
@@ -2007,22 +2007,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>5.640152769364075</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922689</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.294712846224</v>
+        <v>139.3687739767484</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856585</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,16 +2049,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012214</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016448</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2070,7 +2070,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2095,7 +2095,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2140,7 +2140,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701355</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -2247,19 +2247,19 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2298,7 +2298,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>40.37234576591526</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2307,7 +2307,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2481,13 +2481,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
@@ -2496,7 +2496,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,19 +2523,19 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>172.026033500079</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>194.9085394018857</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2623,7 +2623,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.237938656054</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -2712,25 +2712,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>110.0177171766856</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2778,7 +2778,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>48.13676080754387</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2848,7 +2848,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2958,19 +2958,19 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>36.39209596079195</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3000,13 +3000,13 @@
         <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673023</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3082,7 +3082,7 @@
         <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
-        <v>199.0222304576173</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
         <v>250.9057009881286</v>
@@ -3192,22 +3192,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3252,10 +3252,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>71.99884436925737</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3268,7 +3268,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710079</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -3322,7 +3322,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3432,7 +3432,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3480,16 +3480,16 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>144.7250005831143</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>251.5502284016995</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3666,13 +3666,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
@@ -3681,7 +3681,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,16 +3708,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>9.146142788179931</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>105.6507867899574</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3742,7 +3742,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
@@ -3897,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>175.9612165073977</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -3906,19 +3906,19 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3954,7 +3954,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>228.9553704673023</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -3988,7 +3988,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G44" t="n">
         <v>409.8033385187866</v>
@@ -4140,19 +4140,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4185,10 +4185,10 @@
         <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>66.2562870115476</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1035.516275955851</v>
+        <v>900.1832716254632</v>
       </c>
       <c r="C2" t="n">
-        <v>1035.516275955851</v>
+        <v>900.1832716254632</v>
       </c>
       <c r="D2" t="n">
-        <v>677.2505773491002</v>
+        <v>900.1832716254632</v>
       </c>
       <c r="E2" t="n">
-        <v>677.2505773491002</v>
+        <v>900.1832716254632</v>
       </c>
       <c r="F2" t="n">
-        <v>266.2646725594927</v>
+        <v>489.1973668358557</v>
       </c>
       <c r="G2" t="n">
-        <v>52.7180875944842</v>
+        <v>72.09747644578607</v>
       </c>
       <c r="H2" t="n">
-        <v>52.7180875944842</v>
+        <v>72.09747644578607</v>
       </c>
       <c r="I2" t="n">
-        <v>52.7180875944842</v>
+        <v>52.71808759448422</v>
       </c>
       <c r="J2" t="n">
-        <v>72.94508437002453</v>
+        <v>72.94508437002345</v>
       </c>
       <c r="K2" t="n">
-        <v>153.9986274745311</v>
+        <v>153.9986274745283</v>
       </c>
       <c r="L2" t="n">
-        <v>704.9390792031114</v>
+        <v>704.9390792031065</v>
       </c>
       <c r="M2" t="n">
-        <v>1334.573032084389</v>
+        <v>1334.573032084381</v>
       </c>
       <c r="N2" t="n">
-        <v>1959.763123039503</v>
+        <v>1959.763123039494</v>
       </c>
       <c r="O2" t="n">
-        <v>2493.174093780568</v>
+        <v>2493.174093780573</v>
       </c>
       <c r="P2" t="n">
-        <v>2602.201833992997</v>
+        <v>2602.201833993</v>
       </c>
       <c r="Q2" t="n">
-        <v>2635.90437972421</v>
+        <v>2635.904379724211</v>
       </c>
       <c r="R2" t="n">
-        <v>2635.90437972421</v>
+        <v>2635.143761215016</v>
       </c>
       <c r="S2" t="n">
-        <v>2479.413416894737</v>
+        <v>2635.143761215016</v>
       </c>
       <c r="T2" t="n">
-        <v>2479.413416894737</v>
+        <v>2635.143761215016</v>
       </c>
       <c r="U2" t="n">
-        <v>2479.413416894737</v>
+        <v>2381.451089270047</v>
       </c>
       <c r="V2" t="n">
-        <v>2148.350529551166</v>
+        <v>2050.388201926477</v>
       </c>
       <c r="W2" t="n">
-        <v>1795.581874281052</v>
+        <v>2050.388201926477</v>
       </c>
       <c r="X2" t="n">
-        <v>1422.116116019972</v>
+        <v>1676.922443665397</v>
       </c>
       <c r="Y2" t="n">
-        <v>1422.116116019972</v>
+        <v>1286.783111689585</v>
       </c>
     </row>
     <row r="3">
@@ -4385,52 +4385,52 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>966.4318812120973</v>
+        <v>966.4318812120978</v>
       </c>
       <c r="C3" t="n">
-        <v>791.9788519309703</v>
+        <v>791.9788519309708</v>
       </c>
       <c r="D3" t="n">
-        <v>643.0444422697192</v>
+        <v>643.0444422697196</v>
       </c>
       <c r="E3" t="n">
-        <v>483.8069872642636</v>
+        <v>483.8069872642641</v>
       </c>
       <c r="F3" t="n">
-        <v>337.2724292911487</v>
+        <v>337.2724292911492</v>
       </c>
       <c r="G3" t="n">
-        <v>199.8245529640335</v>
+        <v>199.824552964034</v>
       </c>
       <c r="H3" t="n">
-        <v>98.84600463815741</v>
+        <v>98.84600463815775</v>
       </c>
       <c r="I3" t="n">
-        <v>52.7180875944842</v>
+        <v>52.71808759448422</v>
       </c>
       <c r="J3" t="n">
-        <v>52.7180875944842</v>
+        <v>52.71808759448422</v>
       </c>
       <c r="K3" t="n">
-        <v>304.3729239851199</v>
+        <v>119.300560189547</v>
       </c>
       <c r="L3" t="n">
-        <v>807.3557581822309</v>
+        <v>622.2833943866565</v>
       </c>
       <c r="M3" t="n">
-        <v>1446.292223162949</v>
+        <v>1261.219859367373</v>
       </c>
       <c r="N3" t="n">
-        <v>1643.297497944258</v>
+        <v>1913.606193349115</v>
       </c>
       <c r="O3" t="n">
-        <v>2191.222737149932</v>
+        <v>2461.531432554787</v>
       </c>
       <c r="P3" t="n">
-        <v>2613.977979877466</v>
+        <v>2613.977979877468</v>
       </c>
       <c r="Q3" t="n">
-        <v>2635.90437972421</v>
+        <v>2635.904379724211</v>
       </c>
       <c r="R3" t="n">
         <v>2614.390233267651</v>
@@ -4439,7 +4439,7 @@
         <v>2464.803105373095</v>
       </c>
       <c r="T3" t="n">
-        <v>2267.787695880795</v>
+        <v>2267.787695880796</v>
       </c>
       <c r="U3" t="n">
         <v>2039.648482162597</v>
@@ -4448,13 +4448,13 @@
         <v>1804.496373930854</v>
       </c>
       <c r="W3" t="n">
-        <v>1550.259017202652</v>
+        <v>1550.259017202653</v>
       </c>
       <c r="X3" t="n">
-        <v>1342.407516997119</v>
+        <v>1342.40751699712</v>
       </c>
       <c r="Y3" t="n">
-        <v>1134.647218232165</v>
+        <v>1134.647218232166</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>52.7180875944842</v>
+        <v>519.68400351712</v>
       </c>
       <c r="C4" t="n">
-        <v>52.7180875944842</v>
+        <v>350.7478205892131</v>
       </c>
       <c r="D4" t="n">
-        <v>52.7180875944842</v>
+        <v>200.6311811768773</v>
       </c>
       <c r="E4" t="n">
-        <v>52.7180875944842</v>
+        <v>52.71808759448422</v>
       </c>
       <c r="F4" t="n">
-        <v>52.7180875944842</v>
+        <v>52.71808759448422</v>
       </c>
       <c r="G4" t="n">
-        <v>52.7180875944842</v>
+        <v>52.71808759448422</v>
       </c>
       <c r="H4" t="n">
-        <v>52.7180875944842</v>
+        <v>52.71808759448422</v>
       </c>
       <c r="I4" t="n">
-        <v>52.7180875944842</v>
+        <v>52.71808759448422</v>
       </c>
       <c r="J4" t="n">
-        <v>52.7180875944842</v>
+        <v>52.71808759448422</v>
       </c>
       <c r="K4" t="n">
-        <v>153.1475318919734</v>
+        <v>153.1475318919727</v>
       </c>
       <c r="L4" t="n">
-        <v>337.1890785482327</v>
+        <v>337.1890785482312</v>
       </c>
       <c r="M4" t="n">
-        <v>541.6242080628155</v>
+        <v>541.624208062813</v>
       </c>
       <c r="N4" t="n">
-        <v>746.6329435543764</v>
+        <v>746.632943554373</v>
       </c>
       <c r="O4" t="n">
-        <v>919.9753968917094</v>
+        <v>919.975396891705</v>
       </c>
       <c r="P4" t="n">
-        <v>1044.779129327086</v>
+        <v>1044.779129327081</v>
       </c>
       <c r="Q4" t="n">
-        <v>1047.75168442186</v>
+        <v>1047.751684421854</v>
       </c>
       <c r="R4" t="n">
-        <v>1047.75168442186</v>
+        <v>1047.751684421854</v>
       </c>
       <c r="S4" t="n">
-        <v>1047.75168442186</v>
+        <v>1047.751684421854</v>
       </c>
       <c r="T4" t="n">
-        <v>1047.75168442186</v>
+        <v>1047.751684421854</v>
       </c>
       <c r="U4" t="n">
-        <v>1047.75168442186</v>
+        <v>1047.751684421854</v>
       </c>
       <c r="V4" t="n">
-        <v>793.067196215973</v>
+        <v>1047.751684421854</v>
       </c>
       <c r="W4" t="n">
-        <v>503.6500261790124</v>
+        <v>1047.751684421854</v>
       </c>
       <c r="X4" t="n">
-        <v>275.6604752809951</v>
+        <v>922.1250474908899</v>
       </c>
       <c r="Y4" t="n">
-        <v>54.86789613746495</v>
+        <v>701.3324683473597</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1000.963671197077</v>
+        <v>1283.872845664601</v>
       </c>
       <c r="C5" t="n">
-        <v>1000.963671197077</v>
+        <v>1283.872845664601</v>
       </c>
       <c r="D5" t="n">
-        <v>1000.963671197077</v>
+        <v>925.6071470578502</v>
       </c>
       <c r="E5" t="n">
-        <v>1000.963671197077</v>
+        <v>925.6071470578502</v>
       </c>
       <c r="F5" t="n">
-        <v>589.9777664074697</v>
+        <v>514.6212422682427</v>
       </c>
       <c r="G5" t="n">
-        <v>172.8778760174001</v>
+        <v>97.52135187817305</v>
       </c>
       <c r="H5" t="n">
-        <v>172.8778760174001</v>
+        <v>97.52135187817305</v>
       </c>
       <c r="I5" t="n">
-        <v>52.7180875944842</v>
+        <v>52.71808759448422</v>
       </c>
       <c r="J5" t="n">
-        <v>72.94508437002453</v>
+        <v>72.94508437002345</v>
       </c>
       <c r="K5" t="n">
-        <v>474.9025859199842</v>
+        <v>153.9986274745283</v>
       </c>
       <c r="L5" t="n">
-        <v>1025.843037648564</v>
+        <v>704.9390792031065</v>
       </c>
       <c r="M5" t="n">
-        <v>1655.476990529841</v>
+        <v>1334.573032084381</v>
       </c>
       <c r="N5" t="n">
-        <v>2280.667081484956</v>
+        <v>1959.763123039494</v>
       </c>
       <c r="O5" t="n">
-        <v>2493.174093780568</v>
+        <v>2493.174093780573</v>
       </c>
       <c r="P5" t="n">
-        <v>2602.201833992997</v>
+        <v>2602.201833993</v>
       </c>
       <c r="Q5" t="n">
-        <v>2635.90437972421</v>
+        <v>2635.904379724211</v>
       </c>
       <c r="R5" t="n">
-        <v>2635.90437972421</v>
+        <v>2635.143761215016</v>
       </c>
       <c r="S5" t="n">
-        <v>2479.413416894737</v>
+        <v>2478.652798385543</v>
       </c>
       <c r="T5" t="n">
-        <v>2479.413416894737</v>
+        <v>2263.799931140763</v>
       </c>
       <c r="U5" t="n">
-        <v>2479.413416894737</v>
+        <v>2010.107259195795</v>
       </c>
       <c r="V5" t="n">
-        <v>2479.413416894737</v>
+        <v>2010.107259195795</v>
       </c>
       <c r="W5" t="n">
-        <v>2126.644761624623</v>
+        <v>1657.33860392568</v>
       </c>
       <c r="X5" t="n">
-        <v>1753.179003363543</v>
+        <v>1283.872845664601</v>
       </c>
       <c r="Y5" t="n">
-        <v>1363.039671387731</v>
+        <v>1283.872845664601</v>
       </c>
     </row>
     <row r="6">
@@ -4622,52 +4622,52 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>966.4318812120978</v>
+        <v>966.4318812120986</v>
       </c>
       <c r="C6" t="n">
-        <v>791.9788519309708</v>
+        <v>791.9788519309716</v>
       </c>
       <c r="D6" t="n">
-        <v>643.0444422697196</v>
+        <v>643.0444422697203</v>
       </c>
       <c r="E6" t="n">
-        <v>483.8069872642641</v>
+        <v>483.8069872642648</v>
       </c>
       <c r="F6" t="n">
-        <v>337.2724292911492</v>
+        <v>337.2724292911498</v>
       </c>
       <c r="G6" t="n">
-        <v>199.8245529640338</v>
+        <v>199.8245529640342</v>
       </c>
       <c r="H6" t="n">
-        <v>98.84600463815747</v>
+        <v>98.84600463815775</v>
       </c>
       <c r="I6" t="n">
-        <v>52.7180875944842</v>
+        <v>52.71808759448422</v>
       </c>
       <c r="J6" t="n">
-        <v>52.7180875944842</v>
+        <v>52.71808759448422</v>
       </c>
       <c r="K6" t="n">
-        <v>304.3729239851199</v>
+        <v>119.300560189547</v>
       </c>
       <c r="L6" t="n">
-        <v>807.3557581822309</v>
+        <v>622.2833943866565</v>
       </c>
       <c r="M6" t="n">
-        <v>1446.292223162949</v>
+        <v>1261.219859367373</v>
       </c>
       <c r="N6" t="n">
-        <v>1643.297497944258</v>
+        <v>1913.606193349115</v>
       </c>
       <c r="O6" t="n">
-        <v>2191.222737149932</v>
+        <v>2461.531432554787</v>
       </c>
       <c r="P6" t="n">
-        <v>2613.977979877466</v>
+        <v>2613.977979877468</v>
       </c>
       <c r="Q6" t="n">
-        <v>2635.90437972421</v>
+        <v>2635.904379724211</v>
       </c>
       <c r="R6" t="n">
         <v>2614.390233267651</v>
@@ -4682,7 +4682,7 @@
         <v>2039.648482162597</v>
       </c>
       <c r="V6" t="n">
-        <v>1804.496373930854</v>
+        <v>1804.496373930855</v>
       </c>
       <c r="W6" t="n">
         <v>1550.259017202653</v>
@@ -4691,7 +4691,7 @@
         <v>1342.40751699712</v>
       </c>
       <c r="Y6" t="n">
-        <v>1134.647218232166</v>
+        <v>1134.647218232167</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>221.6542705223911</v>
+        <v>417.3210895500672</v>
       </c>
       <c r="C7" t="n">
-        <v>52.7180875944842</v>
+        <v>248.3849066221603</v>
       </c>
       <c r="D7" t="n">
-        <v>52.7180875944842</v>
+        <v>98.26826720982456</v>
       </c>
       <c r="E7" t="n">
-        <v>52.7180875944842</v>
+        <v>98.26826720982456</v>
       </c>
       <c r="F7" t="n">
-        <v>52.7180875944842</v>
+        <v>98.26826720982456</v>
       </c>
       <c r="G7" t="n">
-        <v>52.7180875944842</v>
+        <v>98.26826720982456</v>
       </c>
       <c r="H7" t="n">
-        <v>52.7180875944842</v>
+        <v>98.26826720982456</v>
       </c>
       <c r="I7" t="n">
-        <v>52.7180875944842</v>
+        <v>70.97668332239667</v>
       </c>
       <c r="J7" t="n">
-        <v>52.7180875944842</v>
+        <v>52.71808759448422</v>
       </c>
       <c r="K7" t="n">
-        <v>153.1475318919734</v>
+        <v>153.1475318919727</v>
       </c>
       <c r="L7" t="n">
-        <v>337.1890785482327</v>
+        <v>337.1890785482312</v>
       </c>
       <c r="M7" t="n">
-        <v>541.6242080628155</v>
+        <v>541.624208062813</v>
       </c>
       <c r="N7" t="n">
-        <v>746.6329435543764</v>
+        <v>746.632943554373</v>
       </c>
       <c r="O7" t="n">
-        <v>919.9753968917094</v>
+        <v>919.975396891705</v>
       </c>
       <c r="P7" t="n">
-        <v>1044.779129327086</v>
+        <v>1044.779129327081</v>
       </c>
       <c r="Q7" t="n">
-        <v>1047.75168442186</v>
+        <v>1047.751684421854</v>
       </c>
       <c r="R7" t="n">
-        <v>1047.75168442186</v>
+        <v>1047.751684421854</v>
       </c>
       <c r="S7" t="n">
-        <v>1047.75168442186</v>
+        <v>1047.751684421854</v>
       </c>
       <c r="T7" t="n">
-        <v>959.5888732506039</v>
+        <v>1047.751684421854</v>
       </c>
       <c r="U7" t="n">
-        <v>670.4364005639386</v>
+        <v>1047.751684421854</v>
       </c>
       <c r="V7" t="n">
-        <v>670.4364005639386</v>
+        <v>1047.751684421854</v>
       </c>
       <c r="W7" t="n">
-        <v>670.4364005639386</v>
+        <v>1047.751684421854</v>
       </c>
       <c r="X7" t="n">
-        <v>442.4468496659213</v>
+        <v>819.7621335238371</v>
       </c>
       <c r="Y7" t="n">
-        <v>221.6542705223911</v>
+        <v>598.9695543803069</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1635.54254368632</v>
+        <v>2431.724328120451</v>
       </c>
       <c r="C8" t="n">
-        <v>1266.580026745909</v>
+        <v>2062.761811180039</v>
       </c>
       <c r="D8" t="n">
-        <v>1266.580026745909</v>
+        <v>1704.496112573288</v>
       </c>
       <c r="E8" t="n">
-        <v>880.7917741476642</v>
+        <v>1318.707859975044</v>
       </c>
       <c r="F8" t="n">
-        <v>469.8058693580567</v>
+        <v>907.7219551854364</v>
       </c>
       <c r="G8" t="n">
-        <v>52.7180875944842</v>
+        <v>490.6341734218639</v>
       </c>
       <c r="H8" t="n">
-        <v>52.7180875944842</v>
+        <v>172.4110581943734</v>
       </c>
       <c r="I8" t="n">
-        <v>52.7180875944842</v>
+        <v>52.71808759448422</v>
       </c>
       <c r="J8" t="n">
-        <v>241.3579866082205</v>
+        <v>241.3579866082206</v>
       </c>
       <c r="K8" t="n">
         <v>644.825099628266</v>
       </c>
       <c r="L8" t="n">
-        <v>1197.638357874465</v>
+        <v>1033.218542125549</v>
       </c>
       <c r="M8" t="n">
-        <v>1384.337770699873</v>
+        <v>1219.917954950956</v>
       </c>
       <c r="N8" t="n">
-        <v>1943.024729686011</v>
+        <v>1414.252167842938</v>
       </c>
       <c r="O8" t="n">
-        <v>2490.185934453089</v>
+        <v>1961.413372610016</v>
       </c>
       <c r="P8" t="n">
-        <v>2600.920259702615</v>
+        <v>2390.72841894931</v>
       </c>
       <c r="Q8" t="n">
-        <v>2635.90437972421</v>
+        <v>2635.904379724211</v>
       </c>
       <c r="R8" t="n">
-        <v>2635.90437972421</v>
+        <v>2635.904379724211</v>
       </c>
       <c r="S8" t="n">
-        <v>2635.90437972421</v>
+        <v>2479.689342221039</v>
       </c>
       <c r="T8" t="n">
-        <v>2421.104517991922</v>
+        <v>2431.724328120451</v>
       </c>
       <c r="U8" t="n">
-        <v>2167.412814737072</v>
+        <v>2431.724328120451</v>
       </c>
       <c r="V8" t="n">
-        <v>2025.681875662132</v>
+        <v>2431.724328120451</v>
       </c>
       <c r="W8" t="n">
-        <v>2025.681875662132</v>
+        <v>2431.724328120451</v>
       </c>
       <c r="X8" t="n">
-        <v>2025.681875662132</v>
+        <v>2431.724328120451</v>
       </c>
       <c r="Y8" t="n">
-        <v>1635.54254368632</v>
+        <v>2431.724328120451</v>
       </c>
     </row>
     <row r="9">
@@ -4874,25 +4874,25 @@
         <v>336.9803201001412</v>
       </c>
       <c r="G9" t="n">
-        <v>199.5389224593631</v>
+        <v>199.5389224593632</v>
       </c>
       <c r="H9" t="n">
-        <v>98.62294460416771</v>
+        <v>98.62294460416774</v>
       </c>
       <c r="I9" t="n">
-        <v>52.7180875944842</v>
+        <v>52.71808759448422</v>
       </c>
       <c r="J9" t="n">
-        <v>52.7180875944842</v>
+        <v>171.3773394513799</v>
       </c>
       <c r="K9" t="n">
-        <v>382.1464919002941</v>
+        <v>500.8057437571898</v>
       </c>
       <c r="L9" t="n">
-        <v>886.5080317664126</v>
+        <v>1005.167283623308</v>
       </c>
       <c r="M9" t="n">
-        <v>1232.289170088821</v>
+        <v>1184.664619977913</v>
       </c>
       <c r="N9" t="n">
         <v>1430.945911741486</v>
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>522.8770514488106</v>
+        <v>684.4485387743929</v>
       </c>
       <c r="C10" t="n">
-        <v>522.8770514488106</v>
+        <v>515.512355846486</v>
       </c>
       <c r="D10" t="n">
-        <v>372.7604120364749</v>
+        <v>365.3957164341503</v>
       </c>
       <c r="E10" t="n">
-        <v>224.8473184540817</v>
+        <v>217.4826228517572</v>
       </c>
       <c r="F10" t="n">
-        <v>224.8473184540817</v>
+        <v>70.59267535384683</v>
       </c>
       <c r="G10" t="n">
-        <v>224.8473184540817</v>
+        <v>70.59267535384683</v>
       </c>
       <c r="H10" t="n">
-        <v>70.59267535384681</v>
+        <v>70.59267535384683</v>
       </c>
       <c r="I10" t="n">
-        <v>70.59267535384681</v>
+        <v>70.59267535384683</v>
       </c>
       <c r="J10" t="n">
-        <v>52.7180875944842</v>
+        <v>52.71808759448422</v>
       </c>
       <c r="K10" t="n">
         <v>153.766017190094</v>
@@ -4992,22 +4992,22 @@
         <v>1052.652769053829</v>
       </c>
       <c r="T10" t="n">
-        <v>827.0235723661939</v>
+        <v>1052.652769053829</v>
       </c>
       <c r="U10" t="n">
-        <v>827.0235723661939</v>
+        <v>1052.652769053829</v>
       </c>
       <c r="V10" t="n">
-        <v>827.0235723661939</v>
+        <v>1052.652769053829</v>
       </c>
       <c r="W10" t="n">
-        <v>750.8666023468279</v>
+        <v>1052.652769053829</v>
       </c>
       <c r="X10" t="n">
-        <v>522.8770514488106</v>
+        <v>1052.652769053829</v>
       </c>
       <c r="Y10" t="n">
-        <v>522.8770514488106</v>
+        <v>866.0970036046326</v>
       </c>
     </row>
     <row r="11">
@@ -5020,7 +5020,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5038,16 +5038,16 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192611</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111718</v>
+        <v>378.192580311171</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075804</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
         <v>2206.558663014779</v>
@@ -5120,25 +5120,25 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468473</v>
+        <v>352.5519571452613</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>352.5519571452613</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.092171589158</v>
+        <v>949.9304447718132</v>
       </c>
       <c r="N12" t="n">
-        <v>1670.092171589158</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190824</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5175,22 +5175,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>719.5738700011939</v>
+        <v>695.5020655703069</v>
       </c>
       <c r="C13" t="n">
-        <v>550.637687073287</v>
+        <v>695.5020655703069</v>
       </c>
       <c r="D13" t="n">
-        <v>550.637687073287</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E13" t="n">
-        <v>402.7245934908938</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F13" t="n">
-        <v>402.7245934908938</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H13" t="n">
         <v>93.81666304797189</v>
@@ -5202,49 +5202,49 @@
         <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.74194400383</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797703</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910805</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570813</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279798</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853357</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.963083580256</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832659</v>
       </c>
       <c r="S13" t="n">
-        <v>2379.917379832664</v>
+        <v>2197.062545487563</v>
       </c>
       <c r="T13" t="n">
-        <v>2160.315914855605</v>
+        <v>1977.461080510504</v>
       </c>
       <c r="U13" t="n">
-        <v>1871.240688199803</v>
+        <v>1688.385853854702</v>
       </c>
       <c r="V13" t="n">
-        <v>1616.556199993916</v>
+        <v>1433.701365648815</v>
       </c>
       <c r="W13" t="n">
-        <v>1327.139029956955</v>
+        <v>1144.284195611854</v>
       </c>
       <c r="X13" t="n">
-        <v>1099.149479058938</v>
+        <v>916.294644713837</v>
       </c>
       <c r="Y13" t="n">
-        <v>901.2223348314336</v>
+        <v>695.5020655703069</v>
       </c>
     </row>
     <row r="14">
@@ -5263,43 +5263,43 @@
         <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362688</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.3409563819251</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111687</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.852361107575</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332378</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014765</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355919</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291067988</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694682</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852228</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398594</v>
@@ -5311,16 +5311,16 @@
         <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5333,22 +5333,22 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>943.3991132778468</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C15" t="n">
-        <v>768.9460839967198</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D15" t="n">
-        <v>620.0116743354686</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.774219330013</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
-        <v>314.239661356898</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G15" t="n">
-        <v>178.4809954028058</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
         <v>93.81666304797189</v>
@@ -5357,25 +5357,25 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797189</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>119.2902967703916</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>716.6687843969403</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951544</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190828</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685894</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5390,7 +5390,7 @@
         <v>2244.643795685161</v>
       </c>
       <c r="U15" t="n">
-        <v>2016.615714228346</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V15" t="n">
         <v>1781.463605996603</v>
@@ -5399,7 +5399,7 @@
         <v>1527.226249268401</v>
       </c>
       <c r="X15" t="n">
-        <v>1319.374749062869</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y15" t="n">
         <v>1111.614450297915</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>803.8641191832234</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C16" t="n">
-        <v>634.9279362553165</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D16" t="n">
-        <v>484.8112968429807</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E16" t="n">
-        <v>484.8112968429807</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429807</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578606</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000586</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
-        <v>174.052681478295</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038325</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797711</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.150240910804</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570811</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279794</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853352</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358025</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832652</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487557</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510498</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854696</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648809</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611848</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X16" t="n">
-        <v>1144.284195611848</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y16" t="n">
-        <v>985.5125840134631</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="17">
@@ -5506,46 +5506,46 @@
         <v>793.7736536168609</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362688</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.3409563819251</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111687</v>
+        <v>378.1925803111722</v>
       </c>
       <c r="K17" t="n">
-        <v>852.852361107575</v>
+        <v>852.8523611075824</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332378</v>
+        <v>1478.611553332389</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014795</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355949</v>
+        <v>2950.898526355939</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068018</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694712</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852258</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398594</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
         <v>4151.812499466572</v>
@@ -5570,43 +5570,43 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>943.3991132778468</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C18" t="n">
-        <v>768.9460839967198</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D18" t="n">
-        <v>620.0116743354686</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.774219330013</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
-        <v>314.239661356898</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G18" t="n">
-        <v>178.4809954028058</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K18" t="n">
-        <v>427.7414352191905</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L18" t="n">
-        <v>923.0670414349465</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1520.445529061495</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>2148.043492616099</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O18" t="n">
         <v>2553.061288060775</v>
@@ -5627,7 +5627,7 @@
         <v>2244.643795685161</v>
       </c>
       <c r="U18" t="n">
-        <v>2016.615714228346</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V18" t="n">
         <v>1781.463605996603</v>
@@ -5636,7 +5636,7 @@
         <v>1527.226249268401</v>
       </c>
       <c r="X18" t="n">
-        <v>1319.374749062869</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y18" t="n">
         <v>1111.614450297915</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>954.2476448606498</v>
+        <v>802.9288273958739</v>
       </c>
       <c r="C19" t="n">
-        <v>785.3114619327429</v>
+        <v>633.992644467967</v>
       </c>
       <c r="D19" t="n">
-        <v>779.6143379232842</v>
+        <v>483.8760050556313</v>
       </c>
       <c r="E19" t="n">
-        <v>631.7012443408911</v>
+        <v>483.8760050556313</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429807</v>
+        <v>483.8760050556313</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578606</v>
+        <v>316.6799057705112</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000586</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="J19" t="n">
-        <v>174.052681478295</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038325</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797711</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.150240910804</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570811</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279794</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853352</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358025</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832652</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487557</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>2197.062545487557</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1907.987318831754</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="V19" t="n">
-        <v>1653.302830625868</v>
+        <v>1722.776592304622</v>
       </c>
       <c r="W19" t="n">
-        <v>1363.885660588907</v>
+        <v>1433.359422267661</v>
       </c>
       <c r="X19" t="n">
-        <v>1135.896109690889</v>
+        <v>1205.369871369644</v>
       </c>
       <c r="Y19" t="n">
-        <v>1135.896109690889</v>
+        <v>984.5772922261136</v>
       </c>
     </row>
     <row r="20">
@@ -5734,67 +5734,67 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192684</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111722</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5816,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5825,31 +5825,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>119.2902967703784</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>119.2902967703784</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>119.2902967703784</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>716.6687843969303</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1344.266747951537</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>948.5505208511905</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>779.6143379232836</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>779.6143379232836</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E22" t="n">
-        <v>631.7012443408905</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1647.605706616408</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1358.188536579448</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1130.19898568143</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>1130.19898568143</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5983,16 +5983,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6001,16 +6001,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
@@ -6053,7 +6053,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6062,25 +6062,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>280.8495004245705</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
         <v>2553.061288060775</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3342.53722908186</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C25" t="n">
-        <v>3173.601046153953</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D25" t="n">
-        <v>3023.484406741617</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E25" t="n">
-        <v>2875.571313159224</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F25" t="n">
-        <v>2728.681365661314</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G25" t="n">
-        <v>2561.485266376194</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>2419.773435218392</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
-        <v>2337.686731866305</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>2417.922750296629</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>2679.612012822168</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>3070.010606998108</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
-        <v>3492.020309729143</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>3909.430181389151</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>4278.959462098136</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
-        <v>4571.634917671695</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>4690.833152398594</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>4690.833152398594</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>4690.833152398594</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>4690.833152398594</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>4517.069482196494</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>4262.384993990608</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W25" t="n">
-        <v>3972.967823953647</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X25" t="n">
-        <v>3744.978273055629</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y25" t="n">
-        <v>3524.185693912099</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="26">
@@ -6220,16 +6220,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332388</v>
@@ -6241,34 +6241,34 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
         <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6290,7 +6290,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6299,28 +6299,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>577.3880777468471</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1174.766565373399</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1802.364528928006</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>2354.274259167293</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
         <v>2553.061288060775</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>874.8686257536381</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>705.9324428257312</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D28" t="n">
-        <v>555.8158034133954</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E28" t="n">
-        <v>407.9027098310023</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F28" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797189</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1095.661204897168</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>874.8686257536381</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6439,34 +6439,34 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6487,28 +6487,28 @@
         <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="30">
@@ -6527,7 +6527,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6536,31 +6536,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797189</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L30" t="n">
-        <v>119.2902967703784</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>716.6687843969303</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1344.266747951537</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
         <v>2553.061288060775</v>
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>696.7084350851671</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C31" t="n">
-        <v>527.7722521572603</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D31" t="n">
-        <v>527.7722521572603</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E31" t="n">
-        <v>379.8591585748671</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F31" t="n">
-        <v>343.0994656851783</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G31" t="n">
-        <v>175.9033664000583</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782958</v>
@@ -6648,25 +6648,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T31" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U31" t="n">
-        <v>1871.240688199802</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V31" t="n">
-        <v>1616.556199993915</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W31" t="n">
-        <v>1327.139029956954</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X31" t="n">
-        <v>1099.149479058937</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y31" t="n">
-        <v>878.3568999154069</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="32">
@@ -6676,34 +6676,34 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J32" t="n">
-        <v>378.192580311171</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075804</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6712,10 +6712,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694708</v>
@@ -6724,28 +6724,28 @@
         <v>4562.265728852256</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="33">
@@ -6764,7 +6764,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6773,31 +6773,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L33" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
         <v>2553.061288060775</v>
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>956.9553291057244</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C34" t="n">
-        <v>788.0191461778176</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D34" t="n">
-        <v>637.9025067654818</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E34" t="n">
-        <v>489.9894131830887</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F34" t="n">
-        <v>343.0994656851783</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G34" t="n">
-        <v>175.9033664000583</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782958</v>
@@ -6882,28 +6882,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T34" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U34" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V34" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W34" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X34" t="n">
-        <v>1211.329899359456</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y34" t="n">
-        <v>1138.603793935964</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="35">
@@ -6934,19 +6934,19 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K35" t="n">
         <v>852.8523611075811</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
         <v>2950.898526355938</v>
@@ -6970,7 +6970,7 @@
         <v>4405.252601474785</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
         <v>3820.749612123003</v>
@@ -7013,28 +7013,28 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K36" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L36" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>840.8417932021785</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1468.439756756785</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>2020.349486996072</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2443.97263649114</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.061288060775</v>
@@ -7071,13 +7071,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>951.7772127656159</v>
+        <v>803.8641191832228</v>
       </c>
       <c r="C37" t="n">
-        <v>782.841029837709</v>
+        <v>634.9279362553159</v>
       </c>
       <c r="D37" t="n">
-        <v>632.7243904253733</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E37" t="n">
         <v>484.8112968429802</v>
@@ -7119,28 +7119,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T37" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U37" t="n">
-        <v>1898.319914982233</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V37" t="n">
-        <v>1643.635426776346</v>
+        <v>1434.29471405501</v>
       </c>
       <c r="W37" t="n">
-        <v>1354.218256739386</v>
+        <v>1434.29471405501</v>
       </c>
       <c r="X37" t="n">
-        <v>1354.218256739386</v>
+        <v>1206.305163156993</v>
       </c>
       <c r="Y37" t="n">
-        <v>1133.425677595856</v>
+        <v>985.5125840134625</v>
       </c>
     </row>
     <row r="38">
@@ -7150,19 +7150,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
@@ -7171,13 +7171,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7207,19 +7207,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="39">
@@ -7250,22 +7250,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L39" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
         <v>2553.061288060775</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1098.667160263526</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C40" t="n">
-        <v>929.7309773356194</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D40" t="n">
-        <v>779.6143379232836</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E40" t="n">
-        <v>631.7012443408905</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7356,28 +7356,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S40" t="n">
-        <v>2379.917379832663</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T40" t="n">
-        <v>2379.917379832663</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U40" t="n">
-        <v>2273.199413378161</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V40" t="n">
-        <v>2018.514925172274</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W40" t="n">
-        <v>1729.097755135313</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X40" t="n">
-        <v>1501.108204237296</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y40" t="n">
-        <v>1280.315625093766</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="41">
@@ -7387,22 +7387,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
@@ -7411,22 +7411,22 @@
         <v>95.34095638192598</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7444,19 +7444,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="42">
@@ -7487,28 +7487,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K42" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L42" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1344.266747951537</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1344.266747951537</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
         <v>2553.061288060775</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>806.8386896933887</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C43" t="n">
-        <v>637.9025067654818</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D43" t="n">
-        <v>637.9025067654818</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E43" t="n">
-        <v>489.9894131830887</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F43" t="n">
-        <v>343.0994656851783</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G43" t="n">
-        <v>175.9033664000582</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7602,19 +7602,19 @@
         <v>1977.461080510509</v>
       </c>
       <c r="U43" t="n">
-        <v>1977.461080510509</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V43" t="n">
-        <v>1722.776592304622</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W43" t="n">
-        <v>1433.359422267661</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X43" t="n">
-        <v>1205.369871369644</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y43" t="n">
-        <v>984.5772922261136</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="44">
@@ -7630,13 +7630,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362686</v>
@@ -7651,25 +7651,25 @@
         <v>378.1925803111716</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
         <v>4690.833152398593</v>
@@ -7724,25 +7724,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K45" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L45" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>2297.690135143765</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
         <v>2553.061288060775</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>849.3843576263199</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C46" t="n">
-        <v>680.448174698413</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D46" t="n">
-        <v>530.3315352860773</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E46" t="n">
-        <v>382.4184417036842</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F46" t="n">
-        <v>235.5284942057738</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7833,25 +7833,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T46" t="n">
-        <v>2312.991837396757</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U46" t="n">
-        <v>2023.916610740955</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V46" t="n">
-        <v>1769.232122535068</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W46" t="n">
-        <v>1479.814952498107</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X46" t="n">
-        <v>1251.82540160009</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y46" t="n">
-        <v>1031.03282245656</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
   </sheetData>
@@ -7993,7 +7993,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O2" t="n">
-        <v>368.930821653219</v>
+        <v>368.9308216532355</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -8057,10 +8057,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>6.839178026546477</v>
+        <v>6.839178026547145</v>
       </c>
       <c r="K3" t="n">
-        <v>186.9417816116887</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8069,13 +8069,13 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>459.9808678792276</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>45.42368237240984</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -8218,7 +8218,7 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
         <v>417.6612145504504</v>
@@ -8230,7 +8230,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O5" t="n">
-        <v>44.78540908205468</v>
+        <v>368.9308216532355</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
@@ -8294,10 +8294,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>6.839178026546477</v>
+        <v>6.839178026547145</v>
       </c>
       <c r="K6" t="n">
-        <v>186.9417816116887</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8306,13 +8306,13 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>459.9808678792276</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>45.42368237240984</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -8458,22 +8458,22 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L8" t="n">
-        <v>417.6612145504504</v>
+        <v>251.5805925818478</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>368.0330768627836</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R8" t="n">
         <v>65.71641987298243</v>
@@ -8531,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>6.233205181928369</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8540,10 +8540,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>167.9634363311152</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>48.10560617263477</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8950,7 +8950,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>3.032596396224108e-11</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9172,7 +9172,7 @@
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>2.967226464534178e-11</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
@@ -11059,7 +11059,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>-3.282327221323107e-14</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -23415,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>10.32607348287004</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23466,7 +23466,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23484,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>22.63678056686555</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23658,7 +23658,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -23667,7 +23667,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>138.4949402405072</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -23718,10 +23718,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>61.40075786969376</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23895,19 +23895,19 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>142.9753202488483</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>0.9259388694754875</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -23943,10 +23943,10 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23958,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24135,19 +24135,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24186,7 +24186,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>211.7652975579127</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24195,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24369,13 +24369,13 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24384,7 +24384,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,19 +24411,19 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>114.1584408891651</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>57.22910392194228</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24600,28 +24600,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>57.22910392194228</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24666,7 +24666,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>177.5728945814933</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24846,19 +24846,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>109.0289520621393</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24888,13 +24888,13 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>57.22910392194188</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25080,22 +25080,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25140,10 +25140,10 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>146.5858089828374</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25320,7 +25320,7 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25368,16 +25368,16 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>141.4594738061298</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>0.5874149221284597</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25554,13 +25554,13 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -25569,7 +25569,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,16 +25596,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>180.5336875992868</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25785,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>3.870763674539631</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -25794,19 +25794,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25842,7 +25842,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1844743892441</v>
+        <v>57.22910392194188</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26028,19 +26028,19 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856552</v>
@@ -26073,10 +26073,10 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>151.1491633157407</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>833783.4635594296</v>
+        <v>833783.4635594301</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>833783.4635594296</v>
+        <v>833783.4635594301</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>833435.2850954655</v>
+        <v>833435.2850954656</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>772278.7653906168</v>
+        <v>772278.7653906167</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>772278.7653906171</v>
+        <v>772278.7653906168</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>772278.7653906171</v>
+        <v>772278.7653906168</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>772278.765390617</v>
+        <v>772278.7653906167</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>772278.7653906168</v>
+        <v>772278.7653906167</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>772278.7653906168</v>
+        <v>772278.7653906167</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>772278.7653906168</v>
+        <v>772278.7653906167</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>772278.7653906168</v>
+        <v>772278.765390617</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>772278.765390617</v>
+        <v>772278.7653906167</v>
       </c>
     </row>
     <row r="15">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>772278.7653906168</v>
+        <v>772278.7653906167</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>656833.4158914266</v>
+        <v>656833.4158914271</v>
       </c>
       <c r="C2" t="n">
-        <v>656833.4158914265</v>
+        <v>656833.4158914271</v>
       </c>
       <c r="D2" t="n">
-        <v>656833.4158914266</v>
+        <v>656833.4158914267</v>
       </c>
       <c r="E2" t="n">
+        <v>645717.2797520049</v>
+      </c>
+      <c r="F2" t="n">
         <v>645717.2797520052</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
+        <v>645717.2797520052</v>
+      </c>
+      <c r="H2" t="n">
+        <v>645717.2797520047</v>
+      </c>
+      <c r="I2" t="n">
         <v>645717.2797520049</v>
       </c>
-      <c r="G2" t="n">
-        <v>645717.2797520045</v>
-      </c>
-      <c r="H2" t="n">
-        <v>645717.2797520054</v>
-      </c>
-      <c r="I2" t="n">
+      <c r="J2" t="n">
+        <v>645717.2797520048</v>
+      </c>
+      <c r="K2" t="n">
+        <v>645717.279752005</v>
+      </c>
+      <c r="L2" t="n">
+        <v>645717.279752005</v>
+      </c>
+      <c r="M2" t="n">
         <v>645717.2797520051</v>
       </c>
-      <c r="J2" t="n">
-        <v>645717.2797520052</v>
-      </c>
-      <c r="K2" t="n">
-        <v>645717.2797520054</v>
-      </c>
-      <c r="L2" t="n">
-        <v>645717.2797520054</v>
-      </c>
-      <c r="M2" t="n">
-        <v>645717.2797520052</v>
-      </c>
       <c r="N2" t="n">
-        <v>645717.2797520051</v>
+        <v>645717.279752005</v>
       </c>
       <c r="O2" t="n">
-        <v>645717.2797520052</v>
+        <v>645717.279752005</v>
       </c>
       <c r="P2" t="n">
-        <v>645717.2797520049</v>
+        <v>645717.279752005</v>
       </c>
     </row>
     <row r="3">
@@ -26365,19 +26365,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>789845.9331222414</v>
+        <v>789845.9331222384</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>2553.741448474159</v>
+        <v>2553.741448476983</v>
       </c>
       <c r="E3" t="n">
-        <v>775624.2722329927</v>
+        <v>775624.2722329923</v>
       </c>
       <c r="F3" t="n">
-        <v>-3.185945725247923e-09</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26392,7 +26392,7 @@
         <v>172417.1413821403</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>1.655303094594274e-10</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -26417,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>184436.3405408958</v>
+        <v>184436.3405408963</v>
       </c>
       <c r="C4" t="n">
-        <v>184436.3405408958</v>
+        <v>184436.3405408963</v>
       </c>
       <c r="D4" t="n">
         <v>183932.5854660025</v>
       </c>
       <c r="E4" t="n">
+        <v>6287.480531694991</v>
+      </c>
+      <c r="F4" t="n">
         <v>6287.480531695052</v>
       </c>
-      <c r="F4" t="n">
-        <v>6287.480531695595</v>
-      </c>
       <c r="G4" t="n">
-        <v>6287.480531695583</v>
+        <v>6287.480531695004</v>
       </c>
       <c r="H4" t="n">
-        <v>6287.480531695022</v>
+        <v>6287.480531695052</v>
       </c>
       <c r="I4" t="n">
         <v>6287.480531695052</v>
       </c>
       <c r="J4" t="n">
-        <v>6287.480531695051</v>
+        <v>6287.480531695052</v>
       </c>
       <c r="K4" t="n">
-        <v>6287.480531695051</v>
+        <v>6287.480531695052</v>
       </c>
       <c r="L4" t="n">
-        <v>6287.480531694995</v>
+        <v>6287.480531695052</v>
       </c>
       <c r="M4" t="n">
         <v>6287.480531695052</v>
       </c>
       <c r="N4" t="n">
-        <v>6287.480531695051</v>
+        <v>6287.480531695052</v>
       </c>
       <c r="O4" t="n">
-        <v>6287.480531695051</v>
+        <v>6287.480531695025</v>
       </c>
       <c r="P4" t="n">
-        <v>6287.480531695051</v>
+        <v>6287.480531695026</v>
       </c>
     </row>
     <row r="5">
@@ -26469,22 +26469,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>86566.12012538442</v>
+        <v>86566.12012538436</v>
       </c>
       <c r="C5" t="n">
-        <v>86566.12012538442</v>
+        <v>86566.12012538436</v>
       </c>
       <c r="D5" t="n">
-        <v>86631.1255591778</v>
+        <v>86631.12555917783</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
       </c>
       <c r="F5" t="n">
-        <v>101122.529823907</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="G5" t="n">
-        <v>101122.529823907</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="H5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-404014.977897095</v>
+        <v>-404014.977897092</v>
       </c>
       <c r="C6" t="n">
-        <v>385830.9552251463</v>
+        <v>385830.9552251464</v>
       </c>
       <c r="D6" t="n">
-        <v>383715.9634177722</v>
+        <v>383715.9634177694</v>
       </c>
       <c r="E6" t="n">
-        <v>-237317.0028365896</v>
+        <v>-237664.3820909465</v>
       </c>
       <c r="F6" t="n">
-        <v>538307.2693964071</v>
+        <v>537959.8901420461</v>
       </c>
       <c r="G6" t="n">
-        <v>538307.2693964019</v>
+        <v>537959.8901420461</v>
       </c>
       <c r="H6" t="n">
-        <v>538307.2693964031</v>
+        <v>537959.8901420457</v>
       </c>
       <c r="I6" t="n">
-        <v>538307.2693964029</v>
+        <v>537959.8901420458</v>
       </c>
       <c r="J6" t="n">
-        <v>365890.1280142628</v>
+        <v>365542.7487599053</v>
       </c>
       <c r="K6" t="n">
-        <v>538307.2693964031</v>
+        <v>537959.8901420458</v>
       </c>
       <c r="L6" t="n">
-        <v>538307.2693964033</v>
+        <v>537959.8901420459</v>
       </c>
       <c r="M6" t="n">
-        <v>410283.1519300163</v>
+        <v>409935.7726756592</v>
       </c>
       <c r="N6" t="n">
-        <v>538307.269396403</v>
+        <v>537959.8901420459</v>
       </c>
       <c r="O6" t="n">
-        <v>538307.2693964031</v>
+        <v>537959.8901420459</v>
       </c>
       <c r="P6" t="n">
-        <v>538307.2693964028</v>
+        <v>537959.8901420459</v>
       </c>
     </row>
   </sheetData>
@@ -26737,10 +26737,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>590.4941997053405</v>
+        <v>590.4941997053372</v>
       </c>
       <c r="C3" t="n">
-        <v>590.4941997053405</v>
+        <v>590.4941997053372</v>
       </c>
       <c r="D3" t="n">
         <v>593.4761003380651</v>
@@ -26749,10 +26749,10 @@
         <v>1367.975500341674</v>
       </c>
       <c r="F3" t="n">
-        <v>1367.975500341668</v>
+        <v>1367.975500341674</v>
       </c>
       <c r="G3" t="n">
-        <v>1367.975500341668</v>
+        <v>1367.975500341674</v>
       </c>
       <c r="H3" t="n">
         <v>1367.975500341674</v>
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>658.9760949310526</v>
+        <v>658.9760949310528</v>
       </c>
       <c r="C4" t="n">
-        <v>658.9760949310526</v>
+        <v>658.9760949310528</v>
       </c>
       <c r="D4" t="n">
-        <v>658.9760949310526</v>
+        <v>658.9760949310528</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099649</v>
@@ -26807,19 +26807,19 @@
         <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
         <v>1172.708288099649</v>
@@ -26931,7 +26931,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26959,19 +26959,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>590.4941997053405</v>
+        <v>590.4941997053372</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>2.981900632724546</v>
+        <v>2.981900632727843</v>
       </c>
       <c r="E3" t="n">
-        <v>774.4994000036091</v>
+        <v>774.4994000036089</v>
       </c>
       <c r="F3" t="n">
-        <v>-4.618407636458478e-12</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26986,7 +26986,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -27011,31 +27011,31 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>658.9760949310528</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>513.7321931685958</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
         <v>658.9760949310526</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" t="n">
-        <v>513.732193168596</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>658.9760949310522</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27168,7 +27168,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>658.9760949310526</v>
+        <v>658.9760949310528</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>513.732193168596</v>
+        <v>513.7321931685958</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27384,7 +27384,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -27393,13 +27393,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>201.5177723708105</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>315.1636514716171</v>
+        <v>315.1636514716173</v>
       </c>
       <c r="I2" t="n">
-        <v>118.9581905386867</v>
+        <v>99.77259557589842</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27426,28 +27426,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0.7530123241020306</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>154.9260532011785</v>
       </c>
       <c r="T2" t="n">
-        <v>212.7043385723318</v>
+        <v>212.7043385723319</v>
       </c>
       <c r="U2" t="n">
-        <v>251.1557452255192</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27536,31 +27536,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>177.7036697243863</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.9261537524327</v>
+        <v>166.9261537524328</v>
       </c>
       <c r="H4" t="n">
-        <v>152.75990484659</v>
+        <v>152.7599048465901</v>
       </c>
       <c r="I4" t="n">
-        <v>123.4282648842211</v>
+        <v>123.4282648842213</v>
       </c>
       <c r="J4" t="n">
-        <v>18.07600977063289</v>
+        <v>18.07600977063332</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27584,10 +27584,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>129.4149600371267</v>
+        <v>129.4149600371269</v>
       </c>
       <c r="S4" t="n">
-        <v>205.4595917937733</v>
+        <v>205.4595917937734</v>
       </c>
       <c r="T4" t="n">
         <v>223.3958800207158</v>
@@ -27596,13 +27596,13 @@
         <v>286.2609479597986</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>101.3392848273823</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27615,13 +27615,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>24.27860147473314</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -27633,10 +27633,10 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>315.1636514716171</v>
+        <v>315.1636514716173</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>74.60295889783532</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27663,16 +27663,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0.7530123241020306</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>212.7043385723318</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.1557452255192</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -27684,7 +27684,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27773,13 +27773,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27788,16 +27788,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.9261537524327</v>
+        <v>166.9261537524328</v>
       </c>
       <c r="H7" t="n">
-        <v>152.75990484659</v>
+        <v>152.7599048465901</v>
       </c>
       <c r="I7" t="n">
-        <v>123.4282648842211</v>
+        <v>96.4095968356677</v>
       </c>
       <c r="J7" t="n">
-        <v>18.07600977063289</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27821,16 +27821,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>129.4149600371267</v>
+        <v>129.4149600371269</v>
       </c>
       <c r="S7" t="n">
-        <v>205.4595917937733</v>
+        <v>205.4595917937734</v>
       </c>
       <c r="T7" t="n">
-        <v>136.1146969611724</v>
+        <v>223.3958800207158</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2609479597986</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27858,7 +27858,7 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27870,10 +27870,10 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>315.0408840752156</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>118.4960408938903</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,16 +27903,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>154.6528871281402</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>165.1664991553833</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V8" t="n">
-        <v>187.4386287859437</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -27921,7 +27921,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28010,10 +28010,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -28022,13 +28022,13 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>166.9207765545704</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>152.7120966692326</v>
       </c>
       <c r="I10" t="n">
         <v>123.266557879417</v>
@@ -28064,7 +28064,7 @@
         <v>205.3658819001186</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>223.3729047207587</v>
       </c>
       <c r="U10" t="n">
         <v>286.260654658097</v>
@@ -28073,13 +28073,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>211.1275980174187</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>33.89444555739044</v>
       </c>
     </row>
     <row r="11">
@@ -28274,7 +28274,7 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>-4.389839194578369e-12</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.373846028966191</v>
+        <v>2.373846028966178</v>
       </c>
       <c r="H2" t="n">
-        <v>24.31115064415001</v>
+        <v>24.31115064414988</v>
       </c>
       <c r="I2" t="n">
-        <v>91.51769903171918</v>
+        <v>91.51769903171866</v>
       </c>
       <c r="J2" t="n">
-        <v>201.4772144009694</v>
+        <v>201.4772144009683</v>
       </c>
       <c r="K2" t="n">
-        <v>301.9621168071084</v>
+        <v>301.9621168071067</v>
       </c>
       <c r="L2" t="n">
-        <v>374.6107072160826</v>
+        <v>374.6107072160805</v>
       </c>
       <c r="M2" t="n">
-        <v>416.82659153371</v>
+        <v>416.8265915337077</v>
       </c>
       <c r="N2" t="n">
-        <v>423.5712815635102</v>
+        <v>423.5712815635079</v>
       </c>
       <c r="O2" t="n">
-        <v>399.9663501129777</v>
+        <v>399.9663501129754</v>
       </c>
       <c r="P2" t="n">
-        <v>341.3620262728747</v>
+        <v>341.3620262728729</v>
       </c>
       <c r="Q2" t="n">
-        <v>256.3486653605229</v>
+        <v>256.3486653605215</v>
       </c>
       <c r="R2" t="n">
-        <v>149.1161056170477</v>
+        <v>149.1161056170468</v>
       </c>
       <c r="S2" t="n">
-        <v>54.09401638506714</v>
+        <v>54.09401638506684</v>
       </c>
       <c r="T2" t="n">
-        <v>10.39151099179951</v>
+        <v>10.39151099179945</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1899076823172953</v>
+        <v>0.1899076823172942</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.270119599366204</v>
+        <v>1.270119599366197</v>
       </c>
       <c r="H3" t="n">
-        <v>12.26668139387887</v>
+        <v>12.2666813938788</v>
       </c>
       <c r="I3" t="n">
-        <v>43.72999497817852</v>
+        <v>43.72999497817828</v>
       </c>
       <c r="J3" t="n">
-        <v>119.9984486401202</v>
+        <v>119.9984486401195</v>
       </c>
       <c r="K3" t="n">
-        <v>205.0964617976559</v>
+        <v>205.0964617976547</v>
       </c>
       <c r="L3" t="n">
-        <v>275.7775033623857</v>
+        <v>275.7775033623842</v>
       </c>
       <c r="M3" t="n">
-        <v>321.8193388394105</v>
+        <v>321.8193388394088</v>
       </c>
       <c r="N3" t="n">
-        <v>330.3369391351603</v>
+        <v>330.3369391351584</v>
       </c>
       <c r="O3" t="n">
-        <v>302.1937627492038</v>
+        <v>302.1937627492022</v>
       </c>
       <c r="P3" t="n">
-        <v>242.5371364789728</v>
+        <v>242.5371364789715</v>
       </c>
       <c r="Q3" t="n">
-        <v>162.1296527190965</v>
+        <v>162.1296527190956</v>
       </c>
       <c r="R3" t="n">
-        <v>78.85882916064909</v>
+        <v>78.85882916064865</v>
       </c>
       <c r="S3" t="n">
-        <v>23.59191448822751</v>
+        <v>23.59191448822737</v>
       </c>
       <c r="T3" t="n">
-        <v>5.119473297445357</v>
+        <v>5.119473297445327</v>
       </c>
       <c r="U3" t="n">
-        <v>0.08356049995830293</v>
+        <v>0.08356049995830248</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.064825606026024</v>
+        <v>1.064825606026018</v>
       </c>
       <c r="H4" t="n">
-        <v>9.467267660849563</v>
+        <v>9.467267660849512</v>
       </c>
       <c r="I4" t="n">
-        <v>32.02221004303716</v>
+        <v>32.02221004303698</v>
       </c>
       <c r="J4" t="n">
-        <v>75.28317034603988</v>
+        <v>75.28317034603946</v>
       </c>
       <c r="K4" t="n">
-        <v>123.7133749546598</v>
+        <v>123.7133749546591</v>
       </c>
       <c r="L4" t="n">
-        <v>158.3105269177236</v>
+        <v>158.3105269177227</v>
       </c>
       <c r="M4" t="n">
-        <v>166.9162538609702</v>
+        <v>166.9162538609693</v>
       </c>
       <c r="N4" t="n">
-        <v>162.9473584203279</v>
+        <v>162.947358420327</v>
       </c>
       <c r="O4" t="n">
-        <v>150.5082592953875</v>
+        <v>150.5082592953866</v>
       </c>
       <c r="P4" t="n">
-        <v>128.7858169324565</v>
+        <v>128.7858169324558</v>
       </c>
       <c r="Q4" t="n">
-        <v>89.16462415550642</v>
+        <v>89.16462415550592</v>
       </c>
       <c r="R4" t="n">
-        <v>47.87843134004284</v>
+        <v>47.87843134004257</v>
       </c>
       <c r="S4" t="n">
-        <v>18.55700624319897</v>
+        <v>18.55700624319887</v>
       </c>
       <c r="T4" t="n">
-        <v>4.549709407565737</v>
+        <v>4.549709407565711</v>
       </c>
       <c r="U4" t="n">
-        <v>0.05808139669232864</v>
+        <v>0.05808139669232831</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.373846028966191</v>
+        <v>2.373846028966178</v>
       </c>
       <c r="H5" t="n">
-        <v>24.31115064415001</v>
+        <v>24.31115064414988</v>
       </c>
       <c r="I5" t="n">
-        <v>91.51769903171918</v>
+        <v>91.51769903171866</v>
       </c>
       <c r="J5" t="n">
-        <v>201.4772144009694</v>
+        <v>201.4772144009683</v>
       </c>
       <c r="K5" t="n">
-        <v>301.9621168071084</v>
+        <v>301.9621168071067</v>
       </c>
       <c r="L5" t="n">
-        <v>374.6107072160826</v>
+        <v>374.6107072160805</v>
       </c>
       <c r="M5" t="n">
-        <v>416.82659153371</v>
+        <v>416.8265915337077</v>
       </c>
       <c r="N5" t="n">
-        <v>423.5712815635102</v>
+        <v>423.5712815635079</v>
       </c>
       <c r="O5" t="n">
-        <v>399.9663501129777</v>
+        <v>399.9663501129754</v>
       </c>
       <c r="P5" t="n">
-        <v>341.3620262728747</v>
+        <v>341.3620262728729</v>
       </c>
       <c r="Q5" t="n">
-        <v>256.3486653605229</v>
+        <v>256.3486653605215</v>
       </c>
       <c r="R5" t="n">
-        <v>149.1161056170477</v>
+        <v>149.1161056170468</v>
       </c>
       <c r="S5" t="n">
-        <v>54.09401638506714</v>
+        <v>54.09401638506684</v>
       </c>
       <c r="T5" t="n">
-        <v>10.39151099179951</v>
+        <v>10.39151099179945</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1899076823172953</v>
+        <v>0.1899076823172942</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.270119599366204</v>
+        <v>1.270119599366197</v>
       </c>
       <c r="H6" t="n">
-        <v>12.26668139387887</v>
+        <v>12.2666813938788</v>
       </c>
       <c r="I6" t="n">
-        <v>43.72999497817852</v>
+        <v>43.72999497817828</v>
       </c>
       <c r="J6" t="n">
-        <v>119.9984486401202</v>
+        <v>119.9984486401195</v>
       </c>
       <c r="K6" t="n">
-        <v>205.0964617976559</v>
+        <v>205.0964617976547</v>
       </c>
       <c r="L6" t="n">
-        <v>275.7775033623857</v>
+        <v>275.7775033623842</v>
       </c>
       <c r="M6" t="n">
-        <v>321.8193388394105</v>
+        <v>321.8193388394088</v>
       </c>
       <c r="N6" t="n">
-        <v>330.3369391351603</v>
+        <v>330.3369391351584</v>
       </c>
       <c r="O6" t="n">
-        <v>302.1937627492038</v>
+        <v>302.1937627492022</v>
       </c>
       <c r="P6" t="n">
-        <v>242.5371364789728</v>
+        <v>242.5371364789715</v>
       </c>
       <c r="Q6" t="n">
-        <v>162.1296527190965</v>
+        <v>162.1296527190956</v>
       </c>
       <c r="R6" t="n">
-        <v>78.85882916064909</v>
+        <v>78.85882916064865</v>
       </c>
       <c r="S6" t="n">
-        <v>23.59191448822751</v>
+        <v>23.59191448822737</v>
       </c>
       <c r="T6" t="n">
-        <v>5.119473297445357</v>
+        <v>5.119473297445327</v>
       </c>
       <c r="U6" t="n">
-        <v>0.08356049995830293</v>
+        <v>0.08356049995830248</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.064825606026024</v>
+        <v>1.064825606026018</v>
       </c>
       <c r="H7" t="n">
-        <v>9.467267660849563</v>
+        <v>9.467267660849512</v>
       </c>
       <c r="I7" t="n">
-        <v>32.02221004303716</v>
+        <v>32.02221004303698</v>
       </c>
       <c r="J7" t="n">
-        <v>75.28317034603988</v>
+        <v>75.28317034603946</v>
       </c>
       <c r="K7" t="n">
-        <v>123.7133749546598</v>
+        <v>123.7133749546591</v>
       </c>
       <c r="L7" t="n">
-        <v>158.3105269177236</v>
+        <v>158.3105269177227</v>
       </c>
       <c r="M7" t="n">
-        <v>166.9162538609702</v>
+        <v>166.9162538609693</v>
       </c>
       <c r="N7" t="n">
-        <v>162.9473584203279</v>
+        <v>162.947358420327</v>
       </c>
       <c r="O7" t="n">
-        <v>150.5082592953875</v>
+        <v>150.5082592953866</v>
       </c>
       <c r="P7" t="n">
-        <v>128.7858169324565</v>
+        <v>128.7858169324558</v>
       </c>
       <c r="Q7" t="n">
-        <v>89.16462415550642</v>
+        <v>89.16462415550592</v>
       </c>
       <c r="R7" t="n">
-        <v>47.87843134004284</v>
+        <v>47.87843134004257</v>
       </c>
       <c r="S7" t="n">
-        <v>18.55700624319897</v>
+        <v>18.55700624319887</v>
       </c>
       <c r="T7" t="n">
-        <v>4.549709407565737</v>
+        <v>4.549709407565711</v>
       </c>
       <c r="U7" t="n">
-        <v>0.05808139669232864</v>
+        <v>0.05808139669232831</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31752,40 +31752,40 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162564</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
         <v>125.3175546292901</v>
@@ -31794,7 +31794,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31840,34 +31840,34 @@
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422587</v>
+        <v>399.190220890813</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473074</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
-        <v>370.9642309107737</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P12" t="n">
-        <v>561.87657862147</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
@@ -31910,13 +31910,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796262</v>
@@ -31934,7 +31934,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
         <v>298.3532140417315</v>
@@ -31946,7 +31946,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.49939899634841</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135317</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067223</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663263</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817546</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162525</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175635</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159384</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.586862645999</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236474</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669198</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043711</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292895</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651518</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078727</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659437</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521088</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>164.2853229338335</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>745.546647686209</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071753</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437213</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214675</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.5996128485275</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742415</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937729</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275946</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189893</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121561</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869244</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796254</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355166</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588138</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392029</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106772</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920043</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417302</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515919</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
-        <v>110.9181446670473</v>
+        <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532748</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
-        <v>10.54013910099318</v>
+        <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467216</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.49939899634841</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135317</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067223</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663263</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817546</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162525</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175635</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159384</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.586862645999</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236474</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669198</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043711</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292895</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
-        <v>24.07361910651518</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078727</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,31 +32305,31 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659437</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521088</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422566</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473046</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>745.546647686209</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071753</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O18" t="n">
-        <v>551.7051287319962</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32341,13 +32341,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742415</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
-        <v>11.86008947937729</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275946</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.466841066189893</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121561</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869244</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796254</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355166</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588138</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392029</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106772</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920043</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P19" t="n">
-        <v>298.3532140417302</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515919</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
-        <v>110.9181446670473</v>
+        <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532748</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
-        <v>10.54013910099318</v>
+        <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467216</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32475,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>152.5685698206127</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,31 +32779,31 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>326.7634969305192</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -32815,13 +32815,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32949,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,34 +33016,34 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>334.7693860946154</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -33052,13 +33052,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33259,16 +33259,16 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>164.2853229338202</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
         <v>745.5466476862122</v>
@@ -33277,13 +33277,13 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
@@ -33496,7 +33496,7 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
@@ -33514,13 +33514,13 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>164.9290651940687</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
@@ -33733,16 +33733,16 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
         <v>745.5466476862122</v>
@@ -33751,13 +33751,13 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>250.1723312270667</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
@@ -33906,7 +33906,7 @@
         <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159414</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
         <v>926.5868626460029</v>
@@ -33970,7 +33970,7 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
@@ -33985,10 +33985,10 @@
         <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>465.7451325200306</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -34149,7 +34149,7 @@
         <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236497</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
         <v>593.8732233669224</v>
@@ -34207,7 +34207,7 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
@@ -34219,19 +34219,19 @@
         <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
-        <v>416.4300581532619</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>145.679503963964</v>
@@ -34444,7 +34444,7 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
@@ -34462,10 +34462,10 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>391.925066926462</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>20.43130987428316</v>
+        <v>20.43130987428205</v>
       </c>
       <c r="K2" t="n">
-        <v>81.87226576212782</v>
+        <v>81.87226576212618</v>
       </c>
       <c r="L2" t="n">
-        <v>556.5055067965458</v>
+        <v>556.5055067965436</v>
       </c>
       <c r="M2" t="n">
-        <v>635.9938917992698</v>
+        <v>635.9938917992674</v>
       </c>
       <c r="N2" t="n">
-        <v>631.5051423789034</v>
+        <v>631.5051423789012</v>
       </c>
       <c r="O2" t="n">
-        <v>538.79896034451</v>
+        <v>538.7989603445242</v>
       </c>
       <c r="P2" t="n">
-        <v>110.1290305176052</v>
+        <v>110.1290305176033</v>
       </c>
       <c r="Q2" t="n">
-        <v>34.04297548607346</v>
+        <v>34.04297548607204</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34780,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>254.1968044349856</v>
+        <v>67.25502282329575</v>
       </c>
       <c r="L3" t="n">
-        <v>508.0634688859707</v>
+        <v>508.0634688859691</v>
       </c>
       <c r="M3" t="n">
-        <v>645.3903686673921</v>
+        <v>645.3903686673904</v>
       </c>
       <c r="N3" t="n">
-        <v>198.995227051827</v>
+        <v>658.9760949310528</v>
       </c>
       <c r="O3" t="n">
-        <v>553.459837581489</v>
+        <v>553.4598375814872</v>
       </c>
       <c r="P3" t="n">
-        <v>427.0254977045797</v>
+        <v>153.9864114370511</v>
       </c>
       <c r="Q3" t="n">
-        <v>22.14787863307501</v>
+        <v>22.1478786330741</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34859,25 +34859,25 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>101.443883128777</v>
+        <v>101.4438831287763</v>
       </c>
       <c r="L4" t="n">
-        <v>185.9005521780397</v>
+        <v>185.9005521780389</v>
       </c>
       <c r="M4" t="n">
-        <v>206.5001308228108</v>
+        <v>206.5001308228099</v>
       </c>
       <c r="N4" t="n">
-        <v>207.0795307995565</v>
+        <v>207.0795307995556</v>
       </c>
       <c r="O4" t="n">
-        <v>175.0933872094272</v>
+        <v>175.0933872094263</v>
       </c>
       <c r="P4" t="n">
-        <v>126.06437619735</v>
+        <v>126.0643761973493</v>
       </c>
       <c r="Q4" t="n">
-        <v>3.002580903812031</v>
+        <v>3.002580903811534</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>20.43130987428316</v>
+        <v>20.43130987428205</v>
       </c>
       <c r="K5" t="n">
-        <v>406.0176783332926</v>
+        <v>81.87226576212618</v>
       </c>
       <c r="L5" t="n">
-        <v>556.5055067965458</v>
+        <v>556.5055067965436</v>
       </c>
       <c r="M5" t="n">
-        <v>635.9938917992698</v>
+        <v>635.9938917992674</v>
       </c>
       <c r="N5" t="n">
-        <v>631.5051423789034</v>
+        <v>631.5051423789012</v>
       </c>
       <c r="O5" t="n">
-        <v>214.6535477733457</v>
+        <v>538.7989603445242</v>
       </c>
       <c r="P5" t="n">
-        <v>110.1290305176052</v>
+        <v>110.1290305176033</v>
       </c>
       <c r="Q5" t="n">
-        <v>34.04297548607346</v>
+        <v>34.04297548607204</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35017,25 +35017,25 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>254.1968044349856</v>
+        <v>67.25502282329575</v>
       </c>
       <c r="L6" t="n">
-        <v>508.0634688859707</v>
+        <v>508.0634688859691</v>
       </c>
       <c r="M6" t="n">
-        <v>645.3903686673921</v>
+        <v>645.3903686673904</v>
       </c>
       <c r="N6" t="n">
-        <v>198.995227051827</v>
+        <v>658.9760949310528</v>
       </c>
       <c r="O6" t="n">
-        <v>553.459837581489</v>
+        <v>553.4598375814872</v>
       </c>
       <c r="P6" t="n">
-        <v>427.0254977045797</v>
+        <v>153.9864114370511</v>
       </c>
       <c r="Q6" t="n">
-        <v>22.14787863307501</v>
+        <v>22.1478786330741</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35096,25 +35096,25 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>101.443883128777</v>
+        <v>101.4438831287763</v>
       </c>
       <c r="L7" t="n">
-        <v>185.9005521780397</v>
+        <v>185.9005521780389</v>
       </c>
       <c r="M7" t="n">
-        <v>206.5001308228108</v>
+        <v>206.5001308228099</v>
       </c>
       <c r="N7" t="n">
-        <v>207.0795307995565</v>
+        <v>207.0795307995556</v>
       </c>
       <c r="O7" t="n">
-        <v>175.0933872094272</v>
+        <v>175.0933872094263</v>
       </c>
       <c r="P7" t="n">
-        <v>126.06437619735</v>
+        <v>126.0643761973493</v>
       </c>
       <c r="Q7" t="n">
-        <v>3.002580903812031</v>
+        <v>3.002580903811534</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35178,22 +35178,22 @@
         <v>407.5425384040863</v>
       </c>
       <c r="L8" t="n">
-        <v>558.3972305517163</v>
+        <v>392.3166085831137</v>
       </c>
       <c r="M8" t="n">
         <v>188.5852654802098</v>
       </c>
       <c r="N8" t="n">
-        <v>564.3302616021597</v>
+        <v>196.2971847393761</v>
       </c>
       <c r="O8" t="n">
         <v>552.6880856233105</v>
       </c>
       <c r="P8" t="n">
-        <v>111.8528537874005</v>
+        <v>433.6515619588832</v>
       </c>
       <c r="Q8" t="n">
-        <v>35.33749497130819</v>
+        <v>247.6524856312129</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35251,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>119.8578301584805</v>
       </c>
       <c r="K9" t="n">
         <v>332.7559639452625</v>
@@ -35260,10 +35260,10 @@
         <v>509.4561008748672</v>
       </c>
       <c r="M9" t="n">
-        <v>349.2738770933423</v>
+        <v>181.3104407622271</v>
       </c>
       <c r="N9" t="n">
-        <v>200.663375406732</v>
+        <v>248.7689815793668</v>
       </c>
       <c r="O9" t="n">
         <v>554.9858674269929</v>
@@ -35406,31 +35406,31 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396421</v>
+        <v>285.7087110396415</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367772</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462692</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902951</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243163</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
         <v>129.8660843902405</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754089</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678997</v>
+        <v>261.348781916454</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674332</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
-        <v>228.3679864663293</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071398</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,10 +35567,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096306</v>
       </c>
       <c r="L13" t="n">
         <v>394.3420143191315</v>
@@ -35579,7 +35579,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
         <v>373.2618997060455</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236316375</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
-        <v>285.70871103964</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036774</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462653</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902908</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193475</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243122</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683779</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924703</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902693</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>25.7309431539593</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641906</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238421</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992769</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071373</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.617838762506</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295265</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096338</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191299</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010435</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899058</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060439</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
-        <v>295.6317733066237</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998975</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236316375</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
-        <v>285.70871103964</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036774</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462653</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107903204</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193475</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243122</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683779</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924703</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.866084390239</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,25 +35959,25 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678976</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674304</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641906</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238421</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O18" t="n">
-        <v>409.1088842875518</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295265</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096338</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191299</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010435</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899058</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060439</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
-        <v>295.6317733066237</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q19" t="n">
-        <v>120.4022572998975</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,31 +36196,31 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>25.73094315394598</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
         <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,25 +36433,25 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>188.9220579561602</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36679,19 +36679,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>200.7949786802852</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36855,7 +36855,7 @@
         <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,16 +36907,16 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>25.73094315394598</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
@@ -36925,13 +36925,13 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37068,7 +37068,7 @@
         <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
-        <v>285.7087110396415</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
         <v>479.4543240367771</v>
@@ -37092,7 +37092,7 @@
         <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37162,13 +37162,13 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>22.33282074962425</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37381,16 +37381,16 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
@@ -37399,13 +37399,13 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>110.1905571410452</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37554,7 +37554,7 @@
         <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193505</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
         <v>696.4886512243162</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37633,10 +37633,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>334.4034204366973</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37779,7 +37779,7 @@
         <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396405</v>
       </c>
       <c r="K41" t="n">
         <v>479.4543240367771</v>
@@ -37797,7 +37797,7 @@
         <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683802</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
         <v>371.5675334924729</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37867,19 +37867,19 @@
         <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
-        <v>274.2960242312436</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38019,7 +38019,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367756</v>
       </c>
       <c r="L44" t="n">
         <v>632.079992146269</v>
@@ -38040,7 +38040,7 @@
         <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38110,10 +38110,10 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>257.9506595121318</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_9_32.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_9_32.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2704076.787133998</v>
+        <v>2705837.317436784</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>10955577.07554858</v>
+        <v>10955577.07554857</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283186</v>
+        <v>416855.1052283183</v>
       </c>
     </row>
     <row r="9">
@@ -664,22 +664,22 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>412.9288914861689</v>
+        <v>12.92889148616888</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>19.18559496278883</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,16 +706,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0.7530123241028832</v>
+        <v>0.753012324103679</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>121.0235899230318</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>212.7043385723319</v>
       </c>
       <c r="U2" t="n">
-        <v>251.1557452255192</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -752,13 +752,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>136.0733975638444</v>
+        <v>136.0733975638445</v>
       </c>
       <c r="H3" t="n">
-        <v>99.96876284261766</v>
+        <v>99.96876284261774</v>
       </c>
       <c r="I3" t="n">
-        <v>45.66663787323679</v>
+        <v>45.66663787323703</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,10 +785,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>21.29900499199448</v>
+        <v>21.29900499199491</v>
       </c>
       <c r="S3" t="n">
-        <v>148.0912566156105</v>
+        <v>148.0912566156106</v>
       </c>
       <c r="T3" t="n">
         <v>195.0452553973763</v>
@@ -825,13 +825,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>35.93983447128991</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.9261537524328</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -879,13 +879,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>124.3703705616549</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -904,7 +904,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -916,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>44.35523164085193</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,13 +943,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0.7530123241028832</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>154.9260532011785</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>212.7043385723319</v>
+        <v>30.80826566620398</v>
       </c>
       <c r="U5" t="n">
         <v>251.1557452255192</v>
@@ -989,13 +989,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>136.0733975638444</v>
+        <v>136.0733975638445</v>
       </c>
       <c r="H6" t="n">
-        <v>99.96876284261766</v>
+        <v>99.96876284261774</v>
       </c>
       <c r="I6" t="n">
-        <v>45.66663787323679</v>
+        <v>45.66663787323703</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,10 +1022,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>21.29900499199448</v>
+        <v>21.29900499199491</v>
       </c>
       <c r="S6" t="n">
-        <v>148.0912566156105</v>
+        <v>148.0912566156106</v>
       </c>
       <c r="T6" t="n">
         <v>195.0452553973763</v>
@@ -1062,22 +1062,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.9261537524328</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>27.01866804855361</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>18.07600977063332</v>
+        <v>18.07600977063372</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1119,10 +1119,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>12.5318123677469</v>
       </c>
     </row>
     <row r="8">
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1147,13 +1147,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>412.9169039459368</v>
+        <v>12.9169039459368</v>
       </c>
       <c r="H8" t="n">
-        <v>315.0408840752156</v>
+        <v>285.6365841502433</v>
       </c>
       <c r="I8" t="n">
-        <v>118.4960408938903</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1186,7 +1186,7 @@
         <v>154.6528871281402</v>
       </c>
       <c r="T8" t="n">
-        <v>47.48536395958274</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1314,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>17.69584188176898</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1356,10 +1356,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>202.3860496764732</v>
       </c>
       <c r="Y10" t="n">
-        <v>184.6902077947043</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1527,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>138.2893995353423</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1590,7 +1590,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>158.7974735697956</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634811</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1669,7 +1669,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174136</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -1779,13 +1779,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>27.0291980517616</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428212</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1861,7 +1861,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444141</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1900,7 +1900,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881297</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -2007,7 +2007,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2016,13 +2016,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703271</v>
       </c>
       <c r="H19" t="n">
-        <v>139.3687739767484</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2058,7 +2058,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2095,7 +2095,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2238,22 +2238,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
@@ -2286,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>74.95497330698008</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2478,7 +2478,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>110.0177171766861</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2535,7 +2535,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>194.9085394018857</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2715,7 +2715,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>110.0177171766856</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2772,7 +2772,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>194.9085394018862</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2955,19 +2955,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2997,16 +2997,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>55.5207962406042</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>228.9553704673023</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3204,7 +3204,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>83.06560892428213</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3322,7 +3322,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3429,7 +3429,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3444,7 +3444,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3477,16 +3477,16 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>160.1763464053464</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
-        <v>251.5502284016995</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -3553,10 +3553,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U38" t="n">
         <v>250.9057009881286</v>
@@ -3672,16 +3672,16 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>21.90286287505374</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>9.146142788179931</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3790,13 +3790,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3903,7 +3903,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3918,7 +3918,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>80.67842139643643</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3954,13 +3954,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>228.9553704673023</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -3988,7 +3988,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
         <v>409.8033385187866</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4152,7 +4152,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>83.06560892428213</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>900.1832716254632</v>
+        <v>816.777025898348</v>
       </c>
       <c r="C2" t="n">
-        <v>900.1832716254632</v>
+        <v>816.777025898348</v>
       </c>
       <c r="D2" t="n">
-        <v>900.1832716254632</v>
+        <v>458.5113272915975</v>
       </c>
       <c r="E2" t="n">
-        <v>900.1832716254632</v>
+        <v>72.72307469335327</v>
       </c>
       <c r="F2" t="n">
-        <v>489.1973668358557</v>
+        <v>65.77757394414979</v>
       </c>
       <c r="G2" t="n">
-        <v>72.09747644578607</v>
+        <v>52.71808759448425</v>
       </c>
       <c r="H2" t="n">
-        <v>72.09747644578607</v>
+        <v>52.71808759448425</v>
       </c>
       <c r="I2" t="n">
-        <v>52.71808759448422</v>
+        <v>52.71808759448425</v>
       </c>
       <c r="J2" t="n">
-        <v>72.94508437002345</v>
+        <v>240.3507333903754</v>
       </c>
       <c r="K2" t="n">
-        <v>153.9986274745283</v>
+        <v>321.4042764948787</v>
       </c>
       <c r="L2" t="n">
-        <v>704.9390792031065</v>
+        <v>609.4342495045336</v>
       </c>
       <c r="M2" t="n">
-        <v>1334.573032084381</v>
+        <v>794.049804227902</v>
       </c>
       <c r="N2" t="n">
-        <v>1959.763123039494</v>
+        <v>1419.239895183012</v>
       </c>
       <c r="O2" t="n">
-        <v>2493.174093780573</v>
+        <v>1964.401531937503</v>
       </c>
       <c r="P2" t="n">
-        <v>2602.201833993</v>
+        <v>2392.009993239697</v>
       </c>
       <c r="Q2" t="n">
-        <v>2635.904379724211</v>
+        <v>2635.904379724212</v>
       </c>
       <c r="R2" t="n">
-        <v>2635.143761215016</v>
+        <v>2635.143761215017</v>
       </c>
       <c r="S2" t="n">
-        <v>2635.143761215016</v>
+        <v>2512.897710787712</v>
       </c>
       <c r="T2" t="n">
-        <v>2635.143761215016</v>
+        <v>2298.044843542932</v>
       </c>
       <c r="U2" t="n">
-        <v>2381.451089270047</v>
+        <v>2298.044843542932</v>
       </c>
       <c r="V2" t="n">
-        <v>2050.388201926477</v>
+        <v>1966.981956199361</v>
       </c>
       <c r="W2" t="n">
-        <v>2050.388201926477</v>
+        <v>1966.981956199361</v>
       </c>
       <c r="X2" t="n">
-        <v>1676.922443665397</v>
+        <v>1593.516197938281</v>
       </c>
       <c r="Y2" t="n">
-        <v>1286.783111689585</v>
+        <v>1203.37686596247</v>
       </c>
     </row>
     <row r="3">
@@ -4385,58 +4385,58 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>966.4318812120978</v>
+        <v>966.4318812120982</v>
       </c>
       <c r="C3" t="n">
-        <v>791.9788519309708</v>
+        <v>791.9788519309712</v>
       </c>
       <c r="D3" t="n">
-        <v>643.0444422697196</v>
+        <v>643.0444422697201</v>
       </c>
       <c r="E3" t="n">
-        <v>483.8069872642641</v>
+        <v>483.8069872642645</v>
       </c>
       <c r="F3" t="n">
-        <v>337.2724292911492</v>
+        <v>337.2724292911496</v>
       </c>
       <c r="G3" t="n">
-        <v>199.824552964034</v>
+        <v>199.8245529640345</v>
       </c>
       <c r="H3" t="n">
-        <v>98.84600463815775</v>
+        <v>98.84600463815801</v>
       </c>
       <c r="I3" t="n">
-        <v>52.71808759448422</v>
+        <v>52.71808759448425</v>
       </c>
       <c r="J3" t="n">
-        <v>52.71808759448422</v>
+        <v>170.7774263352067</v>
       </c>
       <c r="K3" t="n">
-        <v>119.300560189547</v>
+        <v>499.1804835727211</v>
       </c>
       <c r="L3" t="n">
-        <v>622.2833943866565</v>
+        <v>1002.163317769829</v>
       </c>
       <c r="M3" t="n">
-        <v>1261.219859367373</v>
+        <v>1238.315708304472</v>
       </c>
       <c r="N3" t="n">
-        <v>1913.606193349115</v>
+        <v>1435.320983085777</v>
       </c>
       <c r="O3" t="n">
-        <v>2461.531432554787</v>
+        <v>1983.246222291447</v>
       </c>
       <c r="P3" t="n">
-        <v>2613.977979877468</v>
+        <v>2406.001465018979</v>
       </c>
       <c r="Q3" t="n">
-        <v>2635.904379724211</v>
+        <v>2635.904379724212</v>
       </c>
       <c r="R3" t="n">
-        <v>2614.390233267651</v>
+        <v>2614.390233267652</v>
       </c>
       <c r="S3" t="n">
-        <v>2464.803105373095</v>
+        <v>2464.803105373096</v>
       </c>
       <c r="T3" t="n">
         <v>2267.787695880796</v>
@@ -4445,7 +4445,7 @@
         <v>2039.648482162597</v>
       </c>
       <c r="V3" t="n">
-        <v>1804.496373930854</v>
+        <v>1804.496373930855</v>
       </c>
       <c r="W3" t="n">
         <v>1550.259017202653</v>
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>519.68400351712</v>
+        <v>576.6860495546488</v>
       </c>
       <c r="C4" t="n">
-        <v>350.7478205892131</v>
+        <v>407.7498666267419</v>
       </c>
       <c r="D4" t="n">
-        <v>200.6311811768773</v>
+        <v>257.6332272144061</v>
       </c>
       <c r="E4" t="n">
-        <v>52.71808759448422</v>
+        <v>221.3303641120931</v>
       </c>
       <c r="F4" t="n">
-        <v>52.71808759448422</v>
+        <v>221.3303641120931</v>
       </c>
       <c r="G4" t="n">
-        <v>52.71808759448422</v>
+        <v>52.71808759448425</v>
       </c>
       <c r="H4" t="n">
-        <v>52.71808759448422</v>
+        <v>52.71808759448425</v>
       </c>
       <c r="I4" t="n">
-        <v>52.71808759448422</v>
+        <v>52.71808759448425</v>
       </c>
       <c r="J4" t="n">
-        <v>52.71808759448422</v>
+        <v>52.71808759448425</v>
       </c>
       <c r="K4" t="n">
-        <v>153.1475318919727</v>
+        <v>153.1475318919721</v>
       </c>
       <c r="L4" t="n">
-        <v>337.1890785482312</v>
+        <v>337.1890785482298</v>
       </c>
       <c r="M4" t="n">
-        <v>541.624208062813</v>
+        <v>541.6242080628107</v>
       </c>
       <c r="N4" t="n">
-        <v>746.632943554373</v>
+        <v>746.6329435543698</v>
       </c>
       <c r="O4" t="n">
-        <v>919.975396891705</v>
+        <v>919.9753968917011</v>
       </c>
       <c r="P4" t="n">
-        <v>1044.779129327081</v>
+        <v>1044.779129327076</v>
       </c>
       <c r="Q4" t="n">
-        <v>1047.751684421854</v>
+        <v>1047.751684421849</v>
       </c>
       <c r="R4" t="n">
-        <v>1047.751684421854</v>
+        <v>1047.751684421849</v>
       </c>
       <c r="S4" t="n">
-        <v>1047.751684421854</v>
+        <v>1047.751684421849</v>
       </c>
       <c r="T4" t="n">
-        <v>1047.751684421854</v>
+        <v>1047.751684421849</v>
       </c>
       <c r="U4" t="n">
-        <v>1047.751684421854</v>
+        <v>1047.751684421849</v>
       </c>
       <c r="V4" t="n">
-        <v>1047.751684421854</v>
+        <v>1047.751684421849</v>
       </c>
       <c r="W4" t="n">
-        <v>1047.751684421854</v>
+        <v>758.3345143848885</v>
       </c>
       <c r="X4" t="n">
-        <v>922.1250474908899</v>
+        <v>758.3345143848885</v>
       </c>
       <c r="Y4" t="n">
-        <v>701.3324683473597</v>
+        <v>758.3345143848885</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1283.872845664601</v>
+        <v>1624.857833979156</v>
       </c>
       <c r="C5" t="n">
-        <v>1283.872845664601</v>
+        <v>1624.857833979156</v>
       </c>
       <c r="D5" t="n">
-        <v>925.6071470578502</v>
+        <v>1266.592135372406</v>
       </c>
       <c r="E5" t="n">
-        <v>925.6071470578502</v>
+        <v>880.8038827741614</v>
       </c>
       <c r="F5" t="n">
-        <v>514.6212422682427</v>
+        <v>469.8179779845539</v>
       </c>
       <c r="G5" t="n">
-        <v>97.52135187817305</v>
+        <v>52.71808759448425</v>
       </c>
       <c r="H5" t="n">
-        <v>97.52135187817305</v>
+        <v>52.71808759448425</v>
       </c>
       <c r="I5" t="n">
-        <v>52.71808759448422</v>
+        <v>52.71808759448425</v>
       </c>
       <c r="J5" t="n">
-        <v>72.94508437002345</v>
+        <v>72.94508437002241</v>
       </c>
       <c r="K5" t="n">
-        <v>153.9986274745283</v>
+        <v>474.9025859199788</v>
       </c>
       <c r="L5" t="n">
-        <v>704.9390792031065</v>
+        <v>1025.843037648555</v>
       </c>
       <c r="M5" t="n">
-        <v>1334.573032084381</v>
+        <v>1655.476990529828</v>
       </c>
       <c r="N5" t="n">
-        <v>1959.763123039494</v>
+        <v>2280.667081484938</v>
       </c>
       <c r="O5" t="n">
-        <v>2493.174093780573</v>
+        <v>2493.174093780576</v>
       </c>
       <c r="P5" t="n">
-        <v>2602.201833993</v>
+        <v>2602.201833993002</v>
       </c>
       <c r="Q5" t="n">
-        <v>2635.904379724211</v>
+        <v>2635.904379724212</v>
       </c>
       <c r="R5" t="n">
-        <v>2635.143761215016</v>
+        <v>2635.904379724212</v>
       </c>
       <c r="S5" t="n">
-        <v>2478.652798385543</v>
+        <v>2635.904379724212</v>
       </c>
       <c r="T5" t="n">
-        <v>2263.799931140763</v>
+        <v>2604.784919455319</v>
       </c>
       <c r="U5" t="n">
-        <v>2010.107259195795</v>
+        <v>2351.09224751035</v>
       </c>
       <c r="V5" t="n">
-        <v>2010.107259195795</v>
+        <v>2351.09224751035</v>
       </c>
       <c r="W5" t="n">
-        <v>1657.33860392568</v>
+        <v>1998.323592240236</v>
       </c>
       <c r="X5" t="n">
-        <v>1283.872845664601</v>
+        <v>1624.857833979156</v>
       </c>
       <c r="Y5" t="n">
-        <v>1283.872845664601</v>
+        <v>1624.857833979156</v>
       </c>
     </row>
     <row r="6">
@@ -4622,73 +4622,73 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>966.4318812120986</v>
+        <v>966.431881212099</v>
       </c>
       <c r="C6" t="n">
-        <v>791.9788519309716</v>
+        <v>791.978851930972</v>
       </c>
       <c r="D6" t="n">
-        <v>643.0444422697203</v>
+        <v>643.0444422697208</v>
       </c>
       <c r="E6" t="n">
-        <v>483.8069872642648</v>
+        <v>483.8069872642652</v>
       </c>
       <c r="F6" t="n">
-        <v>337.2724292911498</v>
+        <v>337.2724292911502</v>
       </c>
       <c r="G6" t="n">
-        <v>199.8245529640342</v>
+        <v>199.8245529640345</v>
       </c>
       <c r="H6" t="n">
-        <v>98.84600463815775</v>
+        <v>98.84600463815801</v>
       </c>
       <c r="I6" t="n">
-        <v>52.71808759448422</v>
+        <v>52.71808759448425</v>
       </c>
       <c r="J6" t="n">
-        <v>52.71808759448422</v>
+        <v>170.7774263352067</v>
       </c>
       <c r="K6" t="n">
-        <v>119.300560189547</v>
+        <v>499.1804835727211</v>
       </c>
       <c r="L6" t="n">
-        <v>622.2833943866565</v>
+        <v>1002.163317769829</v>
       </c>
       <c r="M6" t="n">
-        <v>1261.219859367373</v>
+        <v>1238.315708304472</v>
       </c>
       <c r="N6" t="n">
-        <v>1913.606193349115</v>
+        <v>1435.320983085777</v>
       </c>
       <c r="O6" t="n">
-        <v>2461.531432554787</v>
+        <v>1983.246222291447</v>
       </c>
       <c r="P6" t="n">
-        <v>2613.977979877468</v>
+        <v>2406.001465018979</v>
       </c>
       <c r="Q6" t="n">
-        <v>2635.904379724211</v>
+        <v>2635.904379724212</v>
       </c>
       <c r="R6" t="n">
-        <v>2614.390233267651</v>
+        <v>2614.390233267652</v>
       </c>
       <c r="S6" t="n">
-        <v>2464.803105373095</v>
+        <v>2464.803105373096</v>
       </c>
       <c r="T6" t="n">
         <v>2267.787695880796</v>
       </c>
       <c r="U6" t="n">
-        <v>2039.648482162597</v>
+        <v>2039.648482162598</v>
       </c>
       <c r="V6" t="n">
         <v>1804.496373930855</v>
       </c>
       <c r="W6" t="n">
-        <v>1550.259017202653</v>
+        <v>1550.259017202654</v>
       </c>
       <c r="X6" t="n">
-        <v>1342.40751699712</v>
+        <v>1342.407516997121</v>
       </c>
       <c r="Y6" t="n">
         <v>1134.647218232167</v>
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>417.3210895500672</v>
+        <v>853.4448232605521</v>
       </c>
       <c r="C7" t="n">
-        <v>248.3849066221603</v>
+        <v>684.5086403326452</v>
       </c>
       <c r="D7" t="n">
-        <v>98.26826720982456</v>
+        <v>534.3920009203094</v>
       </c>
       <c r="E7" t="n">
-        <v>98.26826720982456</v>
+        <v>386.4789073379163</v>
       </c>
       <c r="F7" t="n">
-        <v>98.26826720982456</v>
+        <v>239.5889598400059</v>
       </c>
       <c r="G7" t="n">
-        <v>98.26826720982456</v>
+        <v>70.97668332239709</v>
       </c>
       <c r="H7" t="n">
-        <v>98.26826720982456</v>
+        <v>70.97668332239709</v>
       </c>
       <c r="I7" t="n">
-        <v>70.97668332239667</v>
+        <v>70.97668332239709</v>
       </c>
       <c r="J7" t="n">
-        <v>52.71808759448422</v>
+        <v>52.71808759448425</v>
       </c>
       <c r="K7" t="n">
-        <v>153.1475318919727</v>
+        <v>153.1475318919721</v>
       </c>
       <c r="L7" t="n">
-        <v>337.1890785482312</v>
+        <v>337.1890785482298</v>
       </c>
       <c r="M7" t="n">
-        <v>541.624208062813</v>
+        <v>541.6242080628107</v>
       </c>
       <c r="N7" t="n">
-        <v>746.632943554373</v>
+        <v>746.6329435543698</v>
       </c>
       <c r="O7" t="n">
-        <v>919.975396891705</v>
+        <v>919.9753968917011</v>
       </c>
       <c r="P7" t="n">
-        <v>1044.779129327081</v>
+        <v>1044.779129327076</v>
       </c>
       <c r="Q7" t="n">
-        <v>1047.751684421854</v>
+        <v>1047.751684421849</v>
       </c>
       <c r="R7" t="n">
-        <v>1047.751684421854</v>
+        <v>1047.751684421849</v>
       </c>
       <c r="S7" t="n">
-        <v>1047.751684421854</v>
+        <v>1047.751684421849</v>
       </c>
       <c r="T7" t="n">
-        <v>1047.751684421854</v>
+        <v>1047.751684421849</v>
       </c>
       <c r="U7" t="n">
-        <v>1047.751684421854</v>
+        <v>1047.751684421849</v>
       </c>
       <c r="V7" t="n">
-        <v>1047.751684421854</v>
+        <v>1047.751684421849</v>
       </c>
       <c r="W7" t="n">
-        <v>1047.751684421854</v>
+        <v>1047.751684421849</v>
       </c>
       <c r="X7" t="n">
-        <v>819.7621335238371</v>
+        <v>1047.751684421849</v>
       </c>
       <c r="Y7" t="n">
-        <v>598.9695543803069</v>
+        <v>1035.093288090792</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2431.724328120451</v>
+        <v>1878.28964042463</v>
       </c>
       <c r="C8" t="n">
-        <v>2062.761811180039</v>
+        <v>1509.327123484218</v>
       </c>
       <c r="D8" t="n">
-        <v>1704.496112573288</v>
+        <v>1151.061424877468</v>
       </c>
       <c r="E8" t="n">
-        <v>1318.707859975044</v>
+        <v>765.2731722792232</v>
       </c>
       <c r="F8" t="n">
-        <v>907.7219551854364</v>
+        <v>354.2872674896157</v>
       </c>
       <c r="G8" t="n">
-        <v>490.6341734218639</v>
+        <v>341.2398897664472</v>
       </c>
       <c r="H8" t="n">
-        <v>172.4110581943734</v>
+        <v>52.71808759448425</v>
       </c>
       <c r="I8" t="n">
-        <v>52.71808759448422</v>
+        <v>52.71808759448425</v>
       </c>
       <c r="J8" t="n">
         <v>241.3579866082206</v>
       </c>
       <c r="K8" t="n">
-        <v>644.825099628266</v>
+        <v>644.8250996282661</v>
       </c>
       <c r="L8" t="n">
         <v>1033.218542125549</v>
       </c>
       <c r="M8" t="n">
-        <v>1219.917954950956</v>
+        <v>1219.917954950957</v>
       </c>
       <c r="N8" t="n">
-        <v>1414.252167842938</v>
+        <v>1414.252167842939</v>
       </c>
       <c r="O8" t="n">
-        <v>1961.413372610016</v>
+        <v>1961.413372610017</v>
       </c>
       <c r="P8" t="n">
-        <v>2390.72841894931</v>
+        <v>2390.728418949311</v>
       </c>
       <c r="Q8" t="n">
-        <v>2635.904379724211</v>
+        <v>2635.904379724212</v>
       </c>
       <c r="R8" t="n">
-        <v>2635.904379724211</v>
+        <v>2635.904379724212</v>
       </c>
       <c r="S8" t="n">
-        <v>2479.689342221039</v>
+        <v>2479.68934222104</v>
       </c>
       <c r="T8" t="n">
-        <v>2431.724328120451</v>
+        <v>2264.889480488751</v>
       </c>
       <c r="U8" t="n">
-        <v>2431.724328120451</v>
+        <v>2264.889480488751</v>
       </c>
       <c r="V8" t="n">
-        <v>2431.724328120451</v>
+        <v>2264.889480488751</v>
       </c>
       <c r="W8" t="n">
-        <v>2431.724328120451</v>
+        <v>2264.889480488751</v>
       </c>
       <c r="X8" t="n">
-        <v>2431.724328120451</v>
+        <v>2264.889480488751</v>
       </c>
       <c r="Y8" t="n">
-        <v>2431.724328120451</v>
+        <v>2264.889480488751</v>
       </c>
     </row>
     <row r="9">
@@ -4877,10 +4877,10 @@
         <v>199.5389224593632</v>
       </c>
       <c r="H9" t="n">
-        <v>98.62294460416774</v>
+        <v>98.62294460416776</v>
       </c>
       <c r="I9" t="n">
-        <v>52.71808759448422</v>
+        <v>52.71808759448425</v>
       </c>
       <c r="J9" t="n">
         <v>171.3773394513799</v>
@@ -4892,10 +4892,10 @@
         <v>1005.167283623308</v>
       </c>
       <c r="M9" t="n">
-        <v>1184.664619977913</v>
+        <v>1622.212866172784</v>
       </c>
       <c r="N9" t="n">
-        <v>1430.945911741486</v>
+        <v>1820.869607825449</v>
       </c>
       <c r="O9" t="n">
         <v>1980.381920494209</v>
@@ -4938,34 +4938,34 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>684.4485387743929</v>
+        <v>666.5739510150304</v>
       </c>
       <c r="C10" t="n">
-        <v>515.512355846486</v>
+        <v>497.6377680871235</v>
       </c>
       <c r="D10" t="n">
-        <v>365.3957164341503</v>
+        <v>347.5211286747877</v>
       </c>
       <c r="E10" t="n">
-        <v>217.4826228517572</v>
+        <v>199.6080350923946</v>
       </c>
       <c r="F10" t="n">
-        <v>70.59267535384683</v>
+        <v>52.71808759448425</v>
       </c>
       <c r="G10" t="n">
-        <v>70.59267535384683</v>
+        <v>52.71808759448425</v>
       </c>
       <c r="H10" t="n">
-        <v>70.59267535384683</v>
+        <v>52.71808759448425</v>
       </c>
       <c r="I10" t="n">
-        <v>70.59267535384683</v>
+        <v>52.71808759448425</v>
       </c>
       <c r="J10" t="n">
-        <v>52.71808759448422</v>
+        <v>52.71808759448425</v>
       </c>
       <c r="K10" t="n">
-        <v>153.766017190094</v>
+        <v>153.7660171900941</v>
       </c>
       <c r="L10" t="n">
         <v>338.5990120909124</v>
@@ -5004,10 +5004,10 @@
         <v>1052.652769053829</v>
       </c>
       <c r="X10" t="n">
-        <v>1052.652769053829</v>
+        <v>848.2224158452701</v>
       </c>
       <c r="Y10" t="n">
-        <v>866.0970036046326</v>
+        <v>848.2224158452701</v>
       </c>
     </row>
     <row r="11">
@@ -5038,13 +5038,13 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.192580311171</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075804</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
@@ -5053,13 +5053,13 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q11" t="n">
         <v>4562.265728852256</v>
@@ -5117,25 +5117,25 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273908</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K12" t="n">
-        <v>352.5519571452613</v>
+        <v>579.1554649516145</v>
       </c>
       <c r="L12" t="n">
-        <v>352.5519571452613</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>949.9304447718132</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O12" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
         <v>2553.061288060775</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>695.5020655703069</v>
+        <v>642.8692823226939</v>
       </c>
       <c r="C13" t="n">
-        <v>695.5020655703069</v>
+        <v>473.9330993947871</v>
       </c>
       <c r="D13" t="n">
-        <v>555.8158034133954</v>
+        <v>323.8164599824514</v>
       </c>
       <c r="E13" t="n">
-        <v>407.9027098310023</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="F13" t="n">
-        <v>261.0127623330919</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797189</v>
@@ -5202,49 +5202,49 @@
         <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.74194400383</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797703</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910805</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570813</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279798</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853357</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580256</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832659</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487563</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510504</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854702</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648815</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611854</v>
+        <v>1273.299877194481</v>
       </c>
       <c r="X13" t="n">
-        <v>916.294644713837</v>
+        <v>1045.310326296464</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703069</v>
+        <v>824.5177471529337</v>
       </c>
     </row>
     <row r="14">
@@ -5275,25 +5275,25 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075804</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694708</v>
@@ -5354,22 +5354,22 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O15" t="n">
         <v>2553.061288060775</v>
@@ -5427,10 +5427,10 @@
         <v>344.9174178121648</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797189</v>
@@ -5491,52 +5491,52 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.830887436269</v>
       </c>
       <c r="H17" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111722</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075824</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332389</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355939</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
         <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398594</v>
@@ -5548,19 +5548,19 @@
         <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="18">
@@ -5591,25 +5591,25 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803938</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516144</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L18" t="n">
-        <v>1074.481071167373</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M18" t="n">
-        <v>1671.859558793925</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N18" t="n">
-        <v>2001.151557821488</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="O18" t="n">
-        <v>2553.061288060775</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="P18" t="n">
         <v>2553.061288060775</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>802.9288273958739</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C19" t="n">
-        <v>633.992644467967</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D19" t="n">
-        <v>483.8760050556313</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E19" t="n">
-        <v>483.8760050556313</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F19" t="n">
-        <v>483.8760050556313</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G19" t="n">
-        <v>316.6799057705112</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797189</v>
@@ -5706,19 +5706,19 @@
         <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1977.461080510509</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1722.776592304622</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1433.359422267661</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>1205.369871369644</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y19" t="n">
-        <v>984.5772922261136</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="20">
@@ -5734,13 +5734,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
@@ -5752,10 +5752,10 @@
         <v>95.34095638192616</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5764,10 +5764,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5828,13 +5828,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L21" t="n">
         <v>1074.481071167373</v>
@@ -5886,19 +5886,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400712</v>
+        <v>869.6905094135296</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121643</v>
+        <v>700.7543264856228</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121643</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E22" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F22" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G22" t="n">
         <v>235.5284942057738</v>
@@ -5910,52 +5910,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2371.250989330786</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>2151.649524353727</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1862.574297697925</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1607.889809492038</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1318.472639455077</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138411</v>
+        <v>1090.48308855706</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703109</v>
+        <v>869.6905094135296</v>
       </c>
     </row>
     <row r="23">
@@ -5965,34 +5965,34 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6001,16 +6001,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
@@ -6022,19 +6022,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="24">
@@ -6065,13 +6065,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L24" t="n">
         <v>1074.481071167373</v>
@@ -6080,13 +6080,13 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>2299.457522348532</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="O24" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6123,19 +6123,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C25" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G25" t="n">
         <v>235.5284942057738</v>
@@ -6147,52 +6147,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V25" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W25" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X25" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y25" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="26">
@@ -6223,31 +6223,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
@@ -6302,13 +6302,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L27" t="n">
         <v>1074.481071167373</v>
@@ -6317,13 +6317,13 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>2299.457522348532</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="O27" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q27" t="n">
         <v>2553.061288060775</v>
@@ -6360,19 +6360,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C28" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D28" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G28" t="n">
         <v>235.5284942057738</v>
@@ -6384,52 +6384,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="29">
@@ -6439,52 +6439,52 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
@@ -6496,19 +6496,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6539,28 +6539,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
         <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1671.859558793925</v>
+        <v>1268.578514636218</v>
       </c>
       <c r="N30" t="n">
-        <v>2299.457522348532</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O30" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q30" t="n">
         <v>2553.061288060775</v>
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>571.6607764188008</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C31" t="n">
-        <v>402.7245934908938</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D31" t="n">
-        <v>402.7245934908938</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908938</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797187</v>
@@ -6621,52 +6621,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487568</v>
+        <v>2390.881471216014</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510509</v>
+        <v>2171.280006238955</v>
       </c>
       <c r="U31" t="n">
-        <v>1746.193029533436</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V31" t="n">
-        <v>1491.508541327549</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W31" t="n">
-        <v>1202.091371290588</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X31" t="n">
-        <v>974.1018203925706</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y31" t="n">
-        <v>753.3092412490405</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="32">
@@ -6676,34 +6676,34 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6712,16 +6712,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
@@ -6733,19 +6733,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6776,13 +6776,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
         <v>1074.481071167373</v>
@@ -6834,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D34" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E34" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F34" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G34" t="n">
-        <v>177.7213185270447</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H34" t="n">
         <v>93.81666304797187</v>
@@ -6858,52 +6858,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6931,55 +6931,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7001,7 +7001,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7010,10 +7010,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J36" t="n">
         <v>245.2306927803938</v>
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>803.8641191832228</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C37" t="n">
-        <v>634.9279362553159</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D37" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E37" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782958</v>
@@ -7125,22 +7125,22 @@
         <v>2197.062545487568</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510509</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854707</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V37" t="n">
-        <v>1434.29471405501</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W37" t="n">
-        <v>1434.29471405501</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X37" t="n">
-        <v>1206.305163156993</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y37" t="n">
-        <v>985.5125840134625</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="38">
@@ -7171,13 +7171,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7186,10 +7186,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7210,13 +7210,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7250,25 +7250,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516144</v>
+        <v>352.5519571452614</v>
       </c>
       <c r="L39" t="n">
-        <v>1074.481071167373</v>
+        <v>352.5519571452614</v>
       </c>
       <c r="M39" t="n">
-        <v>1671.859558793925</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N39" t="n">
-        <v>2299.457522348532</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O39" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P39" t="n">
         <v>2553.061288060775</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908938</v>
+        <v>198.027470314254</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7387,46 +7387,46 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7444,19 +7444,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="42">
@@ -7487,25 +7487,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>1074.481071167373</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="M42" t="n">
-        <v>1671.859558793925</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N42" t="n">
-        <v>2299.457522348532</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O42" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P42" t="n">
         <v>2553.061288060775</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>571.6607764188008</v>
+        <v>803.2707707770319</v>
       </c>
       <c r="C43" t="n">
-        <v>402.7245934908938</v>
+        <v>634.334587849125</v>
       </c>
       <c r="D43" t="n">
-        <v>402.7245934908938</v>
+        <v>484.2179484367892</v>
       </c>
       <c r="E43" t="n">
-        <v>402.7245934908938</v>
+        <v>484.2179484367892</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908938</v>
+        <v>484.2179484367892</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>317.0218491516692</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>175.3100179938673</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1202.091371290588</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="X43" t="n">
-        <v>974.1018203925706</v>
+        <v>1205.711814750802</v>
       </c>
       <c r="Y43" t="n">
-        <v>753.3092412490405</v>
+        <v>984.9192356072716</v>
       </c>
     </row>
     <row r="44">
@@ -7630,10 +7630,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
         <v>793.7736536168611</v>
@@ -7645,22 +7645,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
         <v>3640.422291068009</v>
@@ -7684,13 +7684,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7724,22 +7724,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N45" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O45" t="n">
         <v>2553.061288060775</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D46" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E46" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F46" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G46" t="n">
-        <v>177.7213185270447</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7806,52 +7806,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -7978,28 +7978,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>417.6612145504504</v>
+        <v>152.0950744303278</v>
       </c>
       <c r="M2" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O2" t="n">
-        <v>368.9308216532355</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R2" t="n">
         <v>65.71641987298243</v>
@@ -8057,28 +8057,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>6.839178026547145</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>465.7050637499999</v>
+        <v>58.85246329942197</v>
       </c>
       <c r="N3" t="n">
-        <v>459.9808678792276</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>45.42368237240984</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8218,7 +8218,7 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L5" t="n">
         <v>417.6612145504504</v>
@@ -8230,7 +8230,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O5" t="n">
-        <v>368.9308216532355</v>
+        <v>44.78540908208575</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
@@ -8294,28 +8294,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>6.839178026547145</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>465.7050637499999</v>
+        <v>58.85246329942197</v>
       </c>
       <c r="N6" t="n">
-        <v>459.9808678792276</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>45.42368237240984</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8458,7 +8458,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L8" t="n">
-        <v>251.5805925818478</v>
+        <v>251.5805925818486</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -8540,13 +8540,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>441.9679254493644</v>
       </c>
       <c r="N9" t="n">
-        <v>48.10560617263477</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
@@ -11059,7 +11059,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>-3.282327221323107e-14</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -23415,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>10.32607348287004</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23478,7 +23478,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>127.7255247667954</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23667,13 +23667,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>138.4949402405072</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23895,7 +23895,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23904,13 +23904,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="H19" t="n">
-        <v>0.9259388694754875</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23946,7 +23946,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24126,28 +24126,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,10 +24174,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>106.0713126946645</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24366,7 +24366,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>57.22910392194177</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -24384,7 +24384,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24423,7 +24423,7 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>57.22910392194228</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24603,7 +24603,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>57.22910392194228</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -24621,7 +24621,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24660,7 +24660,7 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>57.22910392194183</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24843,22 +24843,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,16 +24885,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>125.5054897610404</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>57.22910392194188</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25092,10 +25092,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>57.22910392194173</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25317,7 +25317,7 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -25332,7 +25332,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25365,16 +25365,16 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>57.22910392194191</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0.5874149221284597</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25560,16 +25560,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>143.6212754172151</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25791,7 +25791,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -25806,7 +25806,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>0.5874149221290992</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25842,13 +25842,13 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>57.22910392194188</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -26040,10 +26040,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>57.22910392194173</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>833783.4635594301</v>
+        <v>833783.4635594304</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>833783.4635594301</v>
+        <v>833783.4635594304</v>
       </c>
     </row>
     <row r="4">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>772278.7653906167</v>
+        <v>772278.7653906168</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>772278.7653906168</v>
+        <v>772278.7653906167</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>772278.7653906168</v>
+        <v>772278.7653906167</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>772278.7653906167</v>
+        <v>772278.765390617</v>
       </c>
     </row>
     <row r="9">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>772278.765390617</v>
+        <v>772278.7653906167</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>772278.7653906167</v>
+        <v>772278.7653906168</v>
       </c>
     </row>
     <row r="16">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>656833.4158914271</v>
+        <v>656833.415891427</v>
       </c>
       <c r="C2" t="n">
-        <v>656833.4158914271</v>
+        <v>656833.415891427</v>
       </c>
       <c r="D2" t="n">
-        <v>656833.4158914267</v>
+        <v>656833.4158914268</v>
       </c>
       <c r="E2" t="n">
+        <v>645717.2797520051</v>
+      </c>
+      <c r="F2" t="n">
+        <v>645717.2797520051</v>
+      </c>
+      <c r="G2" t="n">
+        <v>645717.2797520051</v>
+      </c>
+      <c r="H2" t="n">
+        <v>645717.279752005</v>
+      </c>
+      <c r="I2" t="n">
+        <v>645717.279752005</v>
+      </c>
+      <c r="J2" t="n">
+        <v>645717.2797520052</v>
+      </c>
+      <c r="K2" t="n">
+        <v>645717.2797520048</v>
+      </c>
+      <c r="L2" t="n">
+        <v>645717.2797520047</v>
+      </c>
+      <c r="M2" t="n">
         <v>645717.2797520049</v>
-      </c>
-      <c r="F2" t="n">
-        <v>645717.2797520052</v>
-      </c>
-      <c r="G2" t="n">
-        <v>645717.2797520052</v>
-      </c>
-      <c r="H2" t="n">
-        <v>645717.2797520047</v>
-      </c>
-      <c r="I2" t="n">
-        <v>645717.2797520049</v>
-      </c>
-      <c r="J2" t="n">
-        <v>645717.2797520048</v>
-      </c>
-      <c r="K2" t="n">
-        <v>645717.279752005</v>
-      </c>
-      <c r="L2" t="n">
-        <v>645717.279752005</v>
-      </c>
-      <c r="M2" t="n">
-        <v>645717.2797520051</v>
       </c>
       <c r="N2" t="n">
         <v>645717.279752005</v>
       </c>
       <c r="O2" t="n">
-        <v>645717.279752005</v>
+        <v>645717.2797520051</v>
       </c>
       <c r="P2" t="n">
-        <v>645717.279752005</v>
+        <v>645717.2797520047</v>
       </c>
     </row>
     <row r="3">
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>789845.9331222384</v>
+        <v>789845.9331222354</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>2553.741448476983</v>
+        <v>2553.741448479709</v>
       </c>
       <c r="E3" t="n">
-        <v>775624.2722329923</v>
+        <v>775624.2722329926</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>172417.1413821403</v>
+        <v>172417.1413821404</v>
       </c>
       <c r="K3" t="n">
-        <v>1.655303094594274e-10</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>128024.1174663868</v>
+        <v>128024.1174663869</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,34 +26417,34 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>184436.3405408963</v>
+        <v>184436.3405408969</v>
       </c>
       <c r="C4" t="n">
-        <v>184436.3405408963</v>
+        <v>184436.3405408969</v>
       </c>
       <c r="D4" t="n">
         <v>183932.5854660025</v>
       </c>
       <c r="E4" t="n">
-        <v>6287.480531694991</v>
+        <v>6287.480531695052</v>
       </c>
       <c r="F4" t="n">
         <v>6287.480531695052</v>
       </c>
       <c r="G4" t="n">
-        <v>6287.480531695004</v>
+        <v>6287.480531695051</v>
       </c>
       <c r="H4" t="n">
         <v>6287.480531695052</v>
       </c>
       <c r="I4" t="n">
-        <v>6287.480531695052</v>
+        <v>6287.480531695051</v>
       </c>
       <c r="J4" t="n">
-        <v>6287.480531695052</v>
+        <v>6287.480531695051</v>
       </c>
       <c r="K4" t="n">
-        <v>6287.480531695052</v>
+        <v>6287.480531695051</v>
       </c>
       <c r="L4" t="n">
         <v>6287.480531695052</v>
@@ -26453,13 +26453,13 @@
         <v>6287.480531695052</v>
       </c>
       <c r="N4" t="n">
-        <v>6287.480531695052</v>
+        <v>6287.480531695051</v>
       </c>
       <c r="O4" t="n">
-        <v>6287.480531695025</v>
+        <v>6287.480531695051</v>
       </c>
       <c r="P4" t="n">
-        <v>6287.480531695026</v>
+        <v>6287.480531695051</v>
       </c>
     </row>
     <row r="5">
@@ -26469,10 +26469,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>86566.12012538436</v>
+        <v>86566.1201253843</v>
       </c>
       <c r="C5" t="n">
-        <v>86566.12012538436</v>
+        <v>86566.1201253843</v>
       </c>
       <c r="D5" t="n">
         <v>86631.12555917783</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-404014.977897092</v>
+        <v>-404014.9778970896</v>
       </c>
       <c r="C6" t="n">
-        <v>385830.9552251464</v>
+        <v>385830.9552251458</v>
       </c>
       <c r="D6" t="n">
-        <v>383715.9634177694</v>
+        <v>383715.9634177668</v>
       </c>
       <c r="E6" t="n">
-        <v>-237664.3820909465</v>
+        <v>-237351.7407620254</v>
       </c>
       <c r="F6" t="n">
-        <v>537959.8901420461</v>
+        <v>538272.5314709675</v>
       </c>
       <c r="G6" t="n">
-        <v>537959.8901420461</v>
+        <v>538272.5314709672</v>
       </c>
       <c r="H6" t="n">
-        <v>537959.8901420457</v>
+        <v>538272.5314709672</v>
       </c>
       <c r="I6" t="n">
-        <v>537959.8901420458</v>
+        <v>538272.5314709672</v>
       </c>
       <c r="J6" t="n">
-        <v>365542.7487599053</v>
+        <v>365855.3900888269</v>
       </c>
       <c r="K6" t="n">
-        <v>537959.8901420458</v>
+        <v>538272.5314709671</v>
       </c>
       <c r="L6" t="n">
-        <v>537959.8901420459</v>
+        <v>538272.5314709669</v>
       </c>
       <c r="M6" t="n">
-        <v>409935.7726756592</v>
+        <v>410248.4140045801</v>
       </c>
       <c r="N6" t="n">
-        <v>537959.8901420459</v>
+        <v>538272.5314709673</v>
       </c>
       <c r="O6" t="n">
-        <v>537959.8901420459</v>
+        <v>538272.5314709673</v>
       </c>
       <c r="P6" t="n">
-        <v>537959.8901420459</v>
+        <v>538272.5314709669</v>
       </c>
     </row>
   </sheetData>
@@ -26737,10 +26737,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>590.4941997053372</v>
+        <v>590.494199705334</v>
       </c>
       <c r="C3" t="n">
-        <v>590.4941997053372</v>
+        <v>590.494199705334</v>
       </c>
       <c r="D3" t="n">
         <v>593.4761003380651</v>
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>658.9760949310528</v>
+        <v>658.976094931053</v>
       </c>
       <c r="C4" t="n">
-        <v>658.9760949310528</v>
+        <v>658.976094931053</v>
       </c>
       <c r="D4" t="n">
-        <v>658.9760949310528</v>
+        <v>658.976094931053</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099649</v>
@@ -26822,7 +26822,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
         <v>1172.708288099648</v>
@@ -26959,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>590.4941997053372</v>
+        <v>590.494199705334</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>2.981900632727843</v>
+        <v>2.981900632731026</v>
       </c>
       <c r="E3" t="n">
-        <v>774.4994000036089</v>
+        <v>774.4994000036091</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26986,13 +26986,13 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
         <v>2.273736754432321e-13</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>658.9760949310528</v>
+        <v>658.976094931053</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>513.7321931685958</v>
+        <v>513.7321931685956</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>658.9760949310526</v>
+        <v>658.9760949310529</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>513.732193168596</v>
+        <v>513.7321931685956</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>658.9760949310528</v>
+        <v>658.976094931053</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>513.7321931685958</v>
+        <v>513.7321931685956</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27384,22 +27384,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>315.1636514716173</v>
+        <v>315.1636514716174</v>
       </c>
       <c r="I2" t="n">
-        <v>99.77259557589842</v>
+        <v>118.9581905386877</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,13 +27429,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>154.9260532011785</v>
+        <v>33.90246327814695</v>
       </c>
       <c r="T2" t="n">
-        <v>212.7043385723319</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.1557452255192</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27545,22 +27545,22 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>110.4941281752793</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.9261537524328</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>152.7599048465901</v>
       </c>
       <c r="I4" t="n">
-        <v>123.4282648842213</v>
+        <v>123.4282648842215</v>
       </c>
       <c r="J4" t="n">
-        <v>18.07600977063332</v>
+        <v>18.07600977063372</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27584,10 +27584,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>129.4149600371269</v>
+        <v>129.4149600371272</v>
       </c>
       <c r="S4" t="n">
-        <v>205.4595917937734</v>
+        <v>205.4595917937735</v>
       </c>
       <c r="T4" t="n">
         <v>223.3958800207158</v>
@@ -27599,13 +27599,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>101.3392848273823</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27624,7 +27624,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27633,10 +27633,10 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>315.1636514716173</v>
+        <v>315.1636514716174</v>
       </c>
       <c r="I5" t="n">
-        <v>74.60295889783532</v>
+        <v>118.9581905386877</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27663,13 +27663,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>0.753012324103679</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>154.9260532011788</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>181.896072906128</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -27782,19 +27782,19 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.9261537524328</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>152.7599048465901</v>
       </c>
       <c r="I7" t="n">
-        <v>96.4095968356677</v>
+        <v>123.4282648842215</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,10 +27821,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>129.4149600371269</v>
+        <v>129.4149600371272</v>
       </c>
       <c r="S7" t="n">
-        <v>205.4595917937734</v>
+        <v>205.4595917937735</v>
       </c>
       <c r="T7" t="n">
         <v>223.3958800207158</v>
@@ -27839,10 +27839,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>206.0528409843479</v>
       </c>
     </row>
     <row r="8">
@@ -27852,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27867,13 +27867,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>29.40429992497229</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>118.4960408938903</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27906,7 +27906,7 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>165.1664991553833</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>251.1547862223006</v>
@@ -28034,7 +28034,7 @@
         <v>123.266557879417</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>17.69584188176898</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28076,10 +28076,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>23.32360571256393</v>
       </c>
       <c r="Y10" t="n">
-        <v>33.89444555739044</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28274,7 +28274,7 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>-4.389839194578369e-12</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.373846028966178</v>
+        <v>2.373846028966165</v>
       </c>
       <c r="H2" t="n">
-        <v>24.31115064414988</v>
+        <v>24.31115064414974</v>
       </c>
       <c r="I2" t="n">
-        <v>91.51769903171866</v>
+        <v>91.51769903171817</v>
       </c>
       <c r="J2" t="n">
-        <v>201.4772144009683</v>
+        <v>201.4772144009673</v>
       </c>
       <c r="K2" t="n">
-        <v>301.9621168071067</v>
+        <v>301.9621168071051</v>
       </c>
       <c r="L2" t="n">
-        <v>374.6107072160805</v>
+        <v>374.6107072160784</v>
       </c>
       <c r="M2" t="n">
-        <v>416.8265915337077</v>
+        <v>416.8265915337055</v>
       </c>
       <c r="N2" t="n">
-        <v>423.5712815635079</v>
+        <v>423.5712815635056</v>
       </c>
       <c r="O2" t="n">
-        <v>399.9663501129754</v>
+        <v>399.9663501129733</v>
       </c>
       <c r="P2" t="n">
-        <v>341.3620262728729</v>
+        <v>341.362026272871</v>
       </c>
       <c r="Q2" t="n">
-        <v>256.3486653605215</v>
+        <v>256.3486653605202</v>
       </c>
       <c r="R2" t="n">
-        <v>149.1161056170468</v>
+        <v>149.116105617046</v>
       </c>
       <c r="S2" t="n">
-        <v>54.09401638506684</v>
+        <v>54.09401638506655</v>
       </c>
       <c r="T2" t="n">
-        <v>10.39151099179945</v>
+        <v>10.39151099179939</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1899076823172942</v>
+        <v>0.1899076823172932</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.270119599366197</v>
+        <v>1.27011959936619</v>
       </c>
       <c r="H3" t="n">
-        <v>12.2666813938788</v>
+        <v>12.26668139387873</v>
       </c>
       <c r="I3" t="n">
-        <v>43.72999497817828</v>
+        <v>43.72999497817805</v>
       </c>
       <c r="J3" t="n">
-        <v>119.9984486401195</v>
+        <v>119.9984486401189</v>
       </c>
       <c r="K3" t="n">
-        <v>205.0964617976547</v>
+        <v>205.0964617976536</v>
       </c>
       <c r="L3" t="n">
-        <v>275.7775033623842</v>
+        <v>275.7775033623827</v>
       </c>
       <c r="M3" t="n">
-        <v>321.8193388394088</v>
+        <v>321.819338839407</v>
       </c>
       <c r="N3" t="n">
-        <v>330.3369391351584</v>
+        <v>330.3369391351566</v>
       </c>
       <c r="O3" t="n">
-        <v>302.1937627492022</v>
+        <v>302.1937627492005</v>
       </c>
       <c r="P3" t="n">
-        <v>242.5371364789715</v>
+        <v>242.5371364789702</v>
       </c>
       <c r="Q3" t="n">
-        <v>162.1296527190956</v>
+        <v>162.1296527190948</v>
       </c>
       <c r="R3" t="n">
-        <v>78.85882916064865</v>
+        <v>78.85882916064823</v>
       </c>
       <c r="S3" t="n">
-        <v>23.59191448822737</v>
+        <v>23.59191448822725</v>
       </c>
       <c r="T3" t="n">
-        <v>5.119473297445327</v>
+        <v>5.1194732974453</v>
       </c>
       <c r="U3" t="n">
-        <v>0.08356049995830248</v>
+        <v>0.08356049995830202</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.064825606026018</v>
+        <v>1.064825606026012</v>
       </c>
       <c r="H4" t="n">
-        <v>9.467267660849512</v>
+        <v>9.46726766084946</v>
       </c>
       <c r="I4" t="n">
-        <v>32.02221004303698</v>
+        <v>32.02221004303681</v>
       </c>
       <c r="J4" t="n">
-        <v>75.28317034603946</v>
+        <v>75.28317034603906</v>
       </c>
       <c r="K4" t="n">
-        <v>123.7133749546591</v>
+        <v>123.7133749546585</v>
       </c>
       <c r="L4" t="n">
-        <v>158.3105269177227</v>
+        <v>158.3105269177219</v>
       </c>
       <c r="M4" t="n">
-        <v>166.9162538609693</v>
+        <v>166.9162538609684</v>
       </c>
       <c r="N4" t="n">
-        <v>162.947358420327</v>
+        <v>162.9473584203261</v>
       </c>
       <c r="O4" t="n">
-        <v>150.5082592953866</v>
+        <v>150.5082592953858</v>
       </c>
       <c r="P4" t="n">
-        <v>128.7858169324558</v>
+        <v>128.7858169324551</v>
       </c>
       <c r="Q4" t="n">
-        <v>89.16462415550592</v>
+        <v>89.16462415550544</v>
       </c>
       <c r="R4" t="n">
-        <v>47.87843134004257</v>
+        <v>47.87843134004231</v>
       </c>
       <c r="S4" t="n">
-        <v>18.55700624319887</v>
+        <v>18.55700624319877</v>
       </c>
       <c r="T4" t="n">
-        <v>4.549709407565711</v>
+        <v>4.549709407565687</v>
       </c>
       <c r="U4" t="n">
-        <v>0.05808139669232831</v>
+        <v>0.058081396692328</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.373846028966178</v>
+        <v>2.373846028966165</v>
       </c>
       <c r="H5" t="n">
-        <v>24.31115064414988</v>
+        <v>24.31115064414974</v>
       </c>
       <c r="I5" t="n">
-        <v>91.51769903171866</v>
+        <v>91.51769903171817</v>
       </c>
       <c r="J5" t="n">
-        <v>201.4772144009683</v>
+        <v>201.4772144009673</v>
       </c>
       <c r="K5" t="n">
-        <v>301.9621168071067</v>
+        <v>301.9621168071051</v>
       </c>
       <c r="L5" t="n">
-        <v>374.6107072160805</v>
+        <v>374.6107072160784</v>
       </c>
       <c r="M5" t="n">
-        <v>416.8265915337077</v>
+        <v>416.8265915337055</v>
       </c>
       <c r="N5" t="n">
-        <v>423.5712815635079</v>
+        <v>423.5712815635056</v>
       </c>
       <c r="O5" t="n">
-        <v>399.9663501129754</v>
+        <v>399.9663501129733</v>
       </c>
       <c r="P5" t="n">
-        <v>341.3620262728729</v>
+        <v>341.362026272871</v>
       </c>
       <c r="Q5" t="n">
-        <v>256.3486653605215</v>
+        <v>256.3486653605202</v>
       </c>
       <c r="R5" t="n">
-        <v>149.1161056170468</v>
+        <v>149.116105617046</v>
       </c>
       <c r="S5" t="n">
-        <v>54.09401638506684</v>
+        <v>54.09401638506655</v>
       </c>
       <c r="T5" t="n">
-        <v>10.39151099179945</v>
+        <v>10.39151099179939</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1899076823172942</v>
+        <v>0.1899076823172932</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.270119599366197</v>
+        <v>1.27011959936619</v>
       </c>
       <c r="H6" t="n">
-        <v>12.2666813938788</v>
+        <v>12.26668139387873</v>
       </c>
       <c r="I6" t="n">
-        <v>43.72999497817828</v>
+        <v>43.72999497817805</v>
       </c>
       <c r="J6" t="n">
-        <v>119.9984486401195</v>
+        <v>119.9984486401189</v>
       </c>
       <c r="K6" t="n">
-        <v>205.0964617976547</v>
+        <v>205.0964617976536</v>
       </c>
       <c r="L6" t="n">
-        <v>275.7775033623842</v>
+        <v>275.7775033623827</v>
       </c>
       <c r="M6" t="n">
-        <v>321.8193388394088</v>
+        <v>321.819338839407</v>
       </c>
       <c r="N6" t="n">
-        <v>330.3369391351584</v>
+        <v>330.3369391351566</v>
       </c>
       <c r="O6" t="n">
-        <v>302.1937627492022</v>
+        <v>302.1937627492005</v>
       </c>
       <c r="P6" t="n">
-        <v>242.5371364789715</v>
+        <v>242.5371364789702</v>
       </c>
       <c r="Q6" t="n">
-        <v>162.1296527190956</v>
+        <v>162.1296527190948</v>
       </c>
       <c r="R6" t="n">
-        <v>78.85882916064865</v>
+        <v>78.85882916064823</v>
       </c>
       <c r="S6" t="n">
-        <v>23.59191448822737</v>
+        <v>23.59191448822725</v>
       </c>
       <c r="T6" t="n">
-        <v>5.119473297445327</v>
+        <v>5.1194732974453</v>
       </c>
       <c r="U6" t="n">
-        <v>0.08356049995830248</v>
+        <v>0.08356049995830202</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.064825606026018</v>
+        <v>1.064825606026012</v>
       </c>
       <c r="H7" t="n">
-        <v>9.467267660849512</v>
+        <v>9.46726766084946</v>
       </c>
       <c r="I7" t="n">
-        <v>32.02221004303698</v>
+        <v>32.02221004303681</v>
       </c>
       <c r="J7" t="n">
-        <v>75.28317034603946</v>
+        <v>75.28317034603906</v>
       </c>
       <c r="K7" t="n">
-        <v>123.7133749546591</v>
+        <v>123.7133749546585</v>
       </c>
       <c r="L7" t="n">
-        <v>158.3105269177227</v>
+        <v>158.3105269177219</v>
       </c>
       <c r="M7" t="n">
-        <v>166.9162538609693</v>
+        <v>166.9162538609684</v>
       </c>
       <c r="N7" t="n">
-        <v>162.947358420327</v>
+        <v>162.9473584203261</v>
       </c>
       <c r="O7" t="n">
-        <v>150.5082592953866</v>
+        <v>150.5082592953858</v>
       </c>
       <c r="P7" t="n">
-        <v>128.7858169324558</v>
+        <v>128.7858169324551</v>
       </c>
       <c r="Q7" t="n">
-        <v>89.16462415550592</v>
+        <v>89.16462415550544</v>
       </c>
       <c r="R7" t="n">
-        <v>47.87843134004257</v>
+        <v>47.87843134004231</v>
       </c>
       <c r="S7" t="n">
-        <v>18.55700624319887</v>
+        <v>18.55700624319877</v>
       </c>
       <c r="T7" t="n">
-        <v>4.549709407565711</v>
+        <v>4.549709407565687</v>
       </c>
       <c r="U7" t="n">
-        <v>0.05808139669232831</v>
+        <v>0.058081396692328</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31752,40 +31752,40 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S11" t="n">
         <v>125.3175546292901</v>
@@ -31794,7 +31794,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31837,28 +31837,28 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>399.190220890813</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558009</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
@@ -31867,7 +31867,7 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
@@ -31910,13 +31910,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H13" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796262</v>
@@ -31934,7 +31934,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P13" t="n">
         <v>298.3532140417315</v>
@@ -31946,7 +31946,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
@@ -32074,7 +32074,7 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
@@ -32092,7 +32092,7 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -32311,10 +32311,10 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
         <v>475.1391886422586</v>
@@ -32326,13 +32326,13 @@
         <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>463.9598929192557</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>543.0832917018706</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32475,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,10 +32542,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
         <v>101.3076196007749</v>
@@ -32554,16 +32554,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
         <v>398.7616643558013</v>
@@ -32578,13 +32578,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,10 +32779,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
         <v>101.3076196007749</v>
@@ -32791,37 +32791,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>357.9244589488883</v>
       </c>
       <c r="O24" t="n">
-        <v>398.7616643558013</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32949,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,10 +33016,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
         <v>101.3076196007749</v>
@@ -33028,37 +33028,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>357.9244589488883</v>
       </c>
       <c r="O27" t="n">
-        <v>398.7616643558013</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33186,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,10 +33253,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
         <v>101.3076196007749</v>
@@ -33265,37 +33265,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>338.1920576279222</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>398.7616643558013</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33423,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,10 +33490,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
         <v>101.3076196007749</v>
@@ -33502,16 +33502,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
         <v>398.7616643558013</v>
@@ -33526,13 +33526,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33885,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33897,31 +33897,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,34 +33964,34 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422586</v>
+        <v>399.1902208908131</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
@@ -34000,13 +34000,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34134,31 +34134,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,34 +34201,34 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473073</v>
+        <v>514.8598010172138</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
@@ -34237,13 +34237,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,7 +34359,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34371,31 +34371,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34438,31 +34438,31 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>465.7451325200306</v>
       </c>
       <c r="O45" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34474,13 +34474,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34547,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>20.43130987428205</v>
+        <v>189.5279250463547</v>
       </c>
       <c r="K2" t="n">
-        <v>81.87226576212618</v>
+        <v>81.87226576212453</v>
       </c>
       <c r="L2" t="n">
-        <v>556.5055067965436</v>
+        <v>290.939366676419</v>
       </c>
       <c r="M2" t="n">
-        <v>635.9938917992674</v>
+        <v>186.4803583064327</v>
       </c>
       <c r="N2" t="n">
-        <v>631.5051423789012</v>
+        <v>631.5051423788989</v>
       </c>
       <c r="O2" t="n">
-        <v>538.7989603445242</v>
+        <v>550.6683199540319</v>
       </c>
       <c r="P2" t="n">
-        <v>110.1290305176033</v>
+        <v>431.9277386890842</v>
       </c>
       <c r="Q2" t="n">
-        <v>34.04297548607204</v>
+        <v>246.3579661459754</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>119.251857313861</v>
       </c>
       <c r="K3" t="n">
-        <v>67.25502282329575</v>
+        <v>331.7202598358732</v>
       </c>
       <c r="L3" t="n">
-        <v>508.0634688859691</v>
+        <v>508.0634688859677</v>
       </c>
       <c r="M3" t="n">
-        <v>645.3903686673904</v>
+        <v>238.5377682168107</v>
       </c>
       <c r="N3" t="n">
-        <v>658.9760949310528</v>
+        <v>198.9952270518233</v>
       </c>
       <c r="O3" t="n">
-        <v>553.4598375814872</v>
+        <v>553.4598375814855</v>
       </c>
       <c r="P3" t="n">
-        <v>153.9864114370511</v>
+        <v>427.0254977045771</v>
       </c>
       <c r="Q3" t="n">
-        <v>22.1478786330741</v>
+        <v>232.2251663689223</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34859,25 +34859,25 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>101.4438831287763</v>
+        <v>101.4438831287756</v>
       </c>
       <c r="L4" t="n">
-        <v>185.9005521780389</v>
+        <v>185.900552178038</v>
       </c>
       <c r="M4" t="n">
-        <v>206.5001308228099</v>
+        <v>206.500130822809</v>
       </c>
       <c r="N4" t="n">
-        <v>207.0795307995556</v>
+        <v>207.0795307995547</v>
       </c>
       <c r="O4" t="n">
-        <v>175.0933872094263</v>
+        <v>175.0933872094255</v>
       </c>
       <c r="P4" t="n">
-        <v>126.0643761973493</v>
+        <v>126.0643761973486</v>
       </c>
       <c r="Q4" t="n">
-        <v>3.002580903811534</v>
+        <v>3.002580903811051</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>20.43130987428205</v>
+        <v>20.43130987428097</v>
       </c>
       <c r="K5" t="n">
-        <v>81.87226576212618</v>
+        <v>406.0176783332893</v>
       </c>
       <c r="L5" t="n">
-        <v>556.5055067965436</v>
+        <v>556.5055067965416</v>
       </c>
       <c r="M5" t="n">
-        <v>635.9938917992674</v>
+        <v>635.9938917992653</v>
       </c>
       <c r="N5" t="n">
-        <v>631.5051423789012</v>
+        <v>631.5051423788989</v>
       </c>
       <c r="O5" t="n">
-        <v>538.7989603445242</v>
+        <v>214.6535477733723</v>
       </c>
       <c r="P5" t="n">
-        <v>110.1290305176033</v>
+        <v>110.1290305176015</v>
       </c>
       <c r="Q5" t="n">
-        <v>34.04297548607204</v>
+        <v>34.04297548607067</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>119.251857313861</v>
       </c>
       <c r="K6" t="n">
-        <v>67.25502282329575</v>
+        <v>331.7202598358732</v>
       </c>
       <c r="L6" t="n">
-        <v>508.0634688859691</v>
+        <v>508.0634688859677</v>
       </c>
       <c r="M6" t="n">
-        <v>645.3903686673904</v>
+        <v>238.5377682168107</v>
       </c>
       <c r="N6" t="n">
-        <v>658.9760949310528</v>
+        <v>198.9952270518233</v>
       </c>
       <c r="O6" t="n">
-        <v>553.4598375814872</v>
+        <v>553.4598375814855</v>
       </c>
       <c r="P6" t="n">
-        <v>153.9864114370511</v>
+        <v>427.0254977045771</v>
       </c>
       <c r="Q6" t="n">
-        <v>22.1478786330741</v>
+        <v>232.2251663689223</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35096,25 +35096,25 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>101.4438831287763</v>
+        <v>101.4438831287756</v>
       </c>
       <c r="L7" t="n">
-        <v>185.9005521780389</v>
+        <v>185.900552178038</v>
       </c>
       <c r="M7" t="n">
-        <v>206.5001308228099</v>
+        <v>206.500130822809</v>
       </c>
       <c r="N7" t="n">
-        <v>207.0795307995556</v>
+        <v>207.0795307995547</v>
       </c>
       <c r="O7" t="n">
-        <v>175.0933872094263</v>
+        <v>175.0933872094255</v>
       </c>
       <c r="P7" t="n">
-        <v>126.0643761973493</v>
+        <v>126.0643761973486</v>
       </c>
       <c r="Q7" t="n">
-        <v>3.002580903811534</v>
+        <v>3.002580903811051</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35178,7 +35178,7 @@
         <v>407.5425384040863</v>
       </c>
       <c r="L8" t="n">
-        <v>392.3166085831137</v>
+        <v>392.3166085831145</v>
       </c>
       <c r="M8" t="n">
         <v>188.5852654802098</v>
@@ -35260,13 +35260,13 @@
         <v>509.4561008748672</v>
       </c>
       <c r="M9" t="n">
-        <v>181.3104407622271</v>
+        <v>623.2783662115914</v>
       </c>
       <c r="N9" t="n">
-        <v>248.7689815793668</v>
+        <v>200.663375406732</v>
       </c>
       <c r="O9" t="n">
-        <v>554.9858674269929</v>
+        <v>161.1235481502633</v>
       </c>
       <c r="P9" t="n">
         <v>428.2502711927643</v>
@@ -35406,31 +35406,31 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396415</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P11" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R11" t="n">
         <v>129.8660843902405</v>
@@ -35485,28 +35485,28 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K12" t="n">
-        <v>261.348781916454</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O12" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113564</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35567,10 +35567,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096306</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
         <v>394.3420143191315</v>
@@ -35579,7 +35579,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O13" t="n">
         <v>373.2618997060455</v>
@@ -35649,7 +35649,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367765</v>
       </c>
       <c r="L14" t="n">
         <v>632.079992146269</v>
@@ -35722,7 +35722,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
@@ -35740,7 +35740,7 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35959,10 +35959,10 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>337.2977496678996</v>
@@ -35974,13 +35974,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>332.6181808359224</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>409.1088842875403</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36205,13 +36205,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
         <v>256.1654199113569</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
         <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36442,22 +36442,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>226.582746865555</v>
       </c>
       <c r="O24" t="n">
-        <v>256.1654199113569</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36679,22 +36679,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>226.582746865555</v>
       </c>
       <c r="O27" t="n">
-        <v>256.1654199113569</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36916,22 +36916,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>196.0580237059039</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>256.1654199113569</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37153,13 +37153,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
         <v>256.1654199113569</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,28 +37618,28 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678996</v>
+        <v>261.3487819164541</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
-        <v>285.7087110396405</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37864,19 +37864,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674331</v>
+        <v>376.3054212373396</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367756</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38101,16 +38101,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="O45" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
